--- a/Final Result/06XX.xlsx
+++ b/Final Result/06XX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DEABD0-E08B-F14C-B8EE-24CE3DE79ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA6F96-C5EA-E548-A058-BCAD182270C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure-only Core Subgraph" sheetId="1" r:id="rId1"/>
@@ -638,6 +638,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,10 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -689,6 +701,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,9 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,23 +728,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD3DA2-AFDD-A94B-906F-D74F5151AC29}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="136" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,34 +1064,34 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="66"/>
-    <col min="10" max="10" width="13.83203125" style="66" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="39"/>
+    <col min="10" max="10" width="13.83203125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="67" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
@@ -1118,15 +1118,15 @@
       <c r="H3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -1148,15 +1148,15 @@
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="39">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="39">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1178,15 +1178,15 @@
       <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="39">
         <v>0.8589</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="39">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -1208,16 +1208,16 @@
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="39">
         <v>0.71740000000000004</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="39">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1226,10 +1226,10 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="42">
+      <c r="E7" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="43">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1238,64 +1238,64 @@
       <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="39">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="39">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="39">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="39">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="39">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="39">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1304,71 +1304,71 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="E10" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="39">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="39">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="37"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="39">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="39">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="39">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="39">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -1414,16 +1414,16 @@
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="41">
         <v>0.80300000000000005</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="41">
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1432,10 +1432,10 @@
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="43">
         <v>0.3</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="43">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1444,64 +1444,64 @@
       <c r="H15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="39">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="39">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="39">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="39">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="39">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="39">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1510,71 +1510,71 @@
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="43">
         <v>0.3</v>
       </c>
-      <c r="F18" s="42">
-        <v>0</v>
-      </c>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="43">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="66">
+      <c r="I18" s="39">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="39">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="37"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="39">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="39">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="37"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="66">
+      <c r="I20" s="39">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="39">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
@@ -1623,15 +1623,15 @@
       <c r="H24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="68" t="s">
+      <c r="I24" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -1653,15 +1653,15 @@
       <c r="H25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="39">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="39">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1681,15 +1681,15 @@
       <c r="H26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="66">
+      <c r="I26" s="39">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J26" s="66">
+      <c r="J26" s="39">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
@@ -1709,16 +1709,16 @@
       <c r="H27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="66">
+      <c r="I27" s="39">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="39">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1727,10 +1727,10 @@
       <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="42">
+      <c r="E28" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="43">
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1739,64 +1739,64 @@
       <c r="H28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="66">
+      <c r="I28" s="39">
         <v>0.6946</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="42">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="66">
+      <c r="I29" s="39">
         <v>0.6946</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="42">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="66">
+      <c r="I30" s="39">
         <v>0.6946</v>
       </c>
-      <c r="J30" s="70">
+      <c r="J30" s="42">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1805,71 +1805,71 @@
       <c r="D31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="42">
-        <v>0</v>
-      </c>
-      <c r="G31" s="37" t="s">
+      <c r="E31" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="43">
+        <v>0</v>
+      </c>
+      <c r="G31" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="39">
         <v>0.6895</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="39">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="37"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="66">
+      <c r="I32" s="39">
         <v>0.6895</v>
       </c>
-      <c r="J32" s="66">
+      <c r="J32" s="39">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="37"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="66">
+      <c r="I33" s="39">
         <v>0.6895</v>
       </c>
-      <c r="J33" s="66">
+      <c r="J33" s="39">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
@@ -1913,16 +1913,16 @@
       <c r="H35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="66">
+      <c r="I35" s="39">
         <v>0.69040000000000001</v>
       </c>
-      <c r="J35" s="66">
+      <c r="J35" s="39">
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1931,10 +1931,10 @@
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="43">
         <v>0.3</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="43">
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -1943,64 +1943,64 @@
       <c r="H36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="66">
+      <c r="I36" s="39">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J36" s="66">
+      <c r="J36" s="39">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="66">
+      <c r="I37" s="39">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J37" s="66">
+      <c r="J37" s="39">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="66">
+      <c r="I38" s="39">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J38" s="66">
+      <c r="J38" s="39">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2009,71 +2009,71 @@
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="43">
         <v>0.3</v>
       </c>
-      <c r="F39" s="42">
-        <v>0</v>
-      </c>
-      <c r="G39" s="37" t="s">
+      <c r="F39" s="43">
+        <v>0</v>
+      </c>
+      <c r="G39" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="39">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="39">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="37"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="39">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J40" s="66">
+      <c r="J40" s="39">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="37"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="66">
+      <c r="I41" s="39">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J41" s="66">
+      <c r="J41" s="39">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -2122,15 +2122,15 @@
       <c r="H45" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="68" t="s">
+      <c r="I45" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="68" t="s">
+      <c r="J45" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -2152,15 +2152,15 @@
       <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="66">
+      <c r="I46" s="39">
         <v>0.79139999999999999</v>
       </c>
-      <c r="J46" s="66">
+      <c r="J46" s="39">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
@@ -2180,15 +2180,15 @@
       <c r="H47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="66">
+      <c r="I47" s="39">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J47" s="66">
+      <c r="J47" s="39">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2208,16 +2208,16 @@
       <c r="H48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="66">
+      <c r="I48" s="39">
         <v>0.83989999999999998</v>
       </c>
-      <c r="J48" s="66">
+      <c r="J48" s="39">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="46"/>
+      <c r="B49" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2226,10 +2226,10 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="42">
+      <c r="E49" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="43">
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -2238,64 +2238,64 @@
       <c r="H49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="66">
+      <c r="I49" s="39">
         <v>0.83799999999999997</v>
       </c>
-      <c r="J49" s="66">
+      <c r="J49" s="39">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="66">
+      <c r="I50" s="39">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J50" s="66">
+      <c r="J50" s="39">
         <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="66">
+      <c r="I51" s="39">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J51" s="66">
+      <c r="J51" s="39">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="41" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2304,71 +2304,71 @@
       <c r="D52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F52" s="42">
-        <v>0</v>
-      </c>
-      <c r="G52" s="37" t="s">
+      <c r="E52" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="43">
+        <v>0</v>
+      </c>
+      <c r="G52" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="66">
+      <c r="I52" s="39">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J52" s="66">
+      <c r="J52" s="39">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="37"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="66">
+      <c r="I53" s="39">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J53" s="66">
+      <c r="J53" s="39">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="37"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="44"/>
       <c r="H54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="66">
+      <c r="I54" s="39">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J54" s="66">
+      <c r="J54" s="39">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="9" t="s">
         <v>42</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="10" t="s">
         <v>7</v>
       </c>
@@ -2412,16 +2412,16 @@
       <c r="H56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="66">
+      <c r="I56" s="39">
         <v>0.86460000000000004</v>
       </c>
-      <c r="J56" s="66">
+      <c r="J56" s="39">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="41" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2430,10 +2430,10 @@
       <c r="D57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="42">
+      <c r="E57" s="43">
         <v>0.3</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F57" s="43">
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2442,64 +2442,64 @@
       <c r="H57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="66">
+      <c r="I57" s="39">
         <v>0.8599</v>
       </c>
-      <c r="J57" s="66">
+      <c r="J57" s="39">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
       <c r="G58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="66">
+      <c r="I58" s="39">
         <v>0.86019999999999996</v>
       </c>
-      <c r="J58" s="66">
+      <c r="J58" s="39">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="66">
+      <c r="I59" s="39">
         <v>0.8599</v>
       </c>
-      <c r="J59" s="66">
+      <c r="J59" s="39">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2508,71 +2508,71 @@
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="43">
         <v>0.3</v>
       </c>
-      <c r="F60" s="42">
-        <v>0</v>
-      </c>
-      <c r="G60" s="37" t="s">
+      <c r="F60" s="43">
+        <v>0</v>
+      </c>
+      <c r="G60" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="66">
+      <c r="I60" s="39">
         <v>0.86450000000000005</v>
       </c>
-      <c r="J60" s="66">
+      <c r="J60" s="39">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="37"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
       <c r="H61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="66">
+      <c r="I61" s="39">
         <v>0.86229999999999996</v>
       </c>
-      <c r="J61" s="66">
+      <c r="J61" s="39">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="37"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
       <c r="H62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="66">
+      <c r="I62" s="39">
         <v>0.86019999999999996</v>
       </c>
-      <c r="J62" s="66">
+      <c r="J62" s="39">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
@@ -2621,15 +2621,15 @@
       <c r="H66" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="68" t="s">
+      <c r="I66" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="68" t="s">
+      <c r="J66" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -2651,15 +2651,15 @@
       <c r="H67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="66">
+      <c r="I67" s="39">
         <v>0.75160000000000005</v>
       </c>
-      <c r="J67" s="66">
+      <c r="J67" s="39">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="8" t="s">
         <v>6</v>
       </c>
@@ -2679,15 +2679,15 @@
       <c r="H68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="66">
+      <c r="I68" s="39">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J68" s="66">
+      <c r="J68" s="39">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
@@ -2707,16 +2707,16 @@
       <c r="H69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="66">
+      <c r="I69" s="39">
         <v>0.74629999999999996</v>
       </c>
-      <c r="J69" s="66">
+      <c r="J69" s="39">
         <v>1.21E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
-      <c r="B70" s="41" t="s">
+      <c r="A70" s="46"/>
+      <c r="B70" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -2725,10 +2725,10 @@
       <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F70" s="42">
+      <c r="E70" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="43">
         <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -2737,64 +2737,64 @@
       <c r="H70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="66">
+      <c r="I70" s="39">
         <v>0.754</v>
       </c>
-      <c r="J70" s="66">
+      <c r="J70" s="39">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-      <c r="B71" s="41"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="66">
+      <c r="I71" s="39">
         <v>0.75490000000000002</v>
       </c>
-      <c r="J71" s="66">
+      <c r="J71" s="39">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="66">
+      <c r="I72" s="39">
         <v>0.754</v>
       </c>
-      <c r="J72" s="66">
+      <c r="J72" s="39">
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
-      <c r="B73" s="41" t="s">
+      <c r="A73" s="46"/>
+      <c r="B73" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -2803,71 +2803,71 @@
       <c r="D73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F73" s="42">
-        <v>0</v>
-      </c>
-      <c r="G73" s="37" t="s">
+      <c r="E73" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="43">
+        <v>0</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="66">
+      <c r="I73" s="39">
         <v>0.75570000000000004</v>
       </c>
-      <c r="J73" s="66">
+      <c r="J73" s="39">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="37"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="66">
+      <c r="I74" s="39">
         <v>0.75380000000000003</v>
       </c>
-      <c r="J74" s="66">
+      <c r="J74" s="39">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="37"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="44"/>
       <c r="H75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="66">
+      <c r="I75" s="39">
         <v>0.75570000000000004</v>
       </c>
-      <c r="J75" s="66">
+      <c r="J75" s="39">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="10" t="s">
         <v>7</v>
       </c>
@@ -2911,16 +2911,16 @@
       <c r="H77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I77" s="66">
+      <c r="I77" s="39">
         <v>0.81540000000000001</v>
       </c>
-      <c r="J77" s="66">
+      <c r="J77" s="39">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
-      <c r="B78" s="41" t="s">
+      <c r="A78" s="46"/>
+      <c r="B78" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -2929,10 +2929,10 @@
       <c r="D78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="43">
         <v>0.3</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="43">
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -2941,64 +2941,64 @@
       <c r="H78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="66">
+      <c r="I78" s="39">
         <v>0.81669999999999998</v>
       </c>
-      <c r="J78" s="66">
+      <c r="J78" s="39">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
-      <c r="B79" s="41"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
       <c r="G79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="66">
+      <c r="I79" s="39">
         <v>0.81659999999999999</v>
       </c>
-      <c r="J79" s="66">
+      <c r="J79" s="39">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
-      <c r="B80" s="41"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
       <c r="G80" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="66">
+      <c r="I80" s="39">
         <v>0.81720000000000004</v>
       </c>
-      <c r="J80" s="66">
+      <c r="J80" s="39">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
-      <c r="B81" s="41" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -3007,71 +3007,71 @@
       <c r="D81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="43">
         <v>0.3</v>
       </c>
-      <c r="F81" s="42">
-        <v>0</v>
-      </c>
-      <c r="G81" s="37" t="s">
+      <c r="F81" s="43">
+        <v>0</v>
+      </c>
+      <c r="G81" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="66">
+      <c r="I81" s="39">
         <v>0.81679999999999997</v>
       </c>
-      <c r="J81" s="66">
+      <c r="J81" s="39">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="37"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="66">
+      <c r="I82" s="39">
         <v>0.81710000000000005</v>
       </c>
-      <c r="J82" s="66">
+      <c r="J82" s="39">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="39"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="37"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="44"/>
       <c r="H83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="66">
+      <c r="I83" s="39">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J83" s="66">
+      <c r="J83" s="39">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="8" t="s">
         <v>42</v>
       </c>
@@ -3120,15 +3120,15 @@
       <c r="H87" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="68" t="s">
+      <c r="I87" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J87" s="68" t="s">
+      <c r="J87" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -3150,15 +3150,15 @@
       <c r="H88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="66">
+      <c r="I88" s="39">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J88" s="66">
+      <c r="J88" s="39">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="39"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="8" t="s">
         <v>6</v>
       </c>
@@ -3178,15 +3178,15 @@
       <c r="H89" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="66">
+      <c r="I89" s="39">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J89" s="66">
+      <c r="J89" s="39">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="39"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="10" t="s">
         <v>7</v>
       </c>
@@ -3206,16 +3206,16 @@
       <c r="H90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="66">
+      <c r="I90" s="39">
         <v>0.84760000000000002</v>
       </c>
-      <c r="J90" s="66">
+      <c r="J90" s="39">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="39"/>
-      <c r="B91" s="41" t="s">
+      <c r="A91" s="46"/>
+      <c r="B91" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -3224,10 +3224,10 @@
       <c r="D91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F91" s="42">
+      <c r="E91" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F91" s="43">
         <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -3236,64 +3236,64 @@
       <c r="H91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="66">
+      <c r="I91" s="39">
         <v>0.85150000000000003</v>
       </c>
-      <c r="J91" s="66">
+      <c r="J91" s="39">
         <v>5.3E-3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="39"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="46"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="66">
+      <c r="I92" s="39">
         <v>0.85029999999999994</v>
       </c>
-      <c r="J92" s="66">
+      <c r="J92" s="39">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="39"/>
-      <c r="B93" s="41"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
       <c r="G93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I93" s="66">
+      <c r="I93" s="39">
         <v>0.85140000000000005</v>
       </c>
-      <c r="J93" s="66">
+      <c r="J93" s="39">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="39"/>
-      <c r="B94" s="41" t="s">
+      <c r="A94" s="46"/>
+      <c r="B94" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -3302,71 +3302,71 @@
       <c r="D94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F94" s="42">
-        <v>0</v>
-      </c>
-      <c r="G94" s="37" t="s">
+      <c r="E94" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F94" s="43">
+        <v>0</v>
+      </c>
+      <c r="G94" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="66">
+      <c r="I94" s="39">
         <v>0.85470000000000002</v>
       </c>
-      <c r="J94" s="66">
+      <c r="J94" s="39">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="39"/>
-      <c r="B95" s="41"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="37"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="66">
+      <c r="I95" s="39">
         <v>0.85470000000000002</v>
       </c>
-      <c r="J95" s="66">
+      <c r="J95" s="39">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="39"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="37"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="44"/>
       <c r="H96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I96" s="66">
+      <c r="I96" s="39">
         <v>0.85409999999999997</v>
       </c>
-      <c r="J96" s="66">
+      <c r="J96" s="39">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="39"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="8" t="s">
         <v>42</v>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="39"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="10" t="s">
         <v>7</v>
       </c>
@@ -3410,16 +3410,16 @@
       <c r="H98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I98" s="66">
+      <c r="I98" s="39">
         <v>0.85209999999999997</v>
       </c>
-      <c r="J98" s="66">
+      <c r="J98" s="39">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="39"/>
-      <c r="B99" s="41" t="s">
+      <c r="A99" s="46"/>
+      <c r="B99" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -3428,10 +3428,10 @@
       <c r="D99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="42">
+      <c r="E99" s="43">
         <v>0.3</v>
       </c>
-      <c r="F99" s="42">
+      <c r="F99" s="43">
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -3440,64 +3440,64 @@
       <c r="H99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I99" s="66">
+      <c r="I99" s="39">
         <v>0.84240000000000004</v>
       </c>
-      <c r="J99" s="66">
+      <c r="J99" s="39">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="39"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
       <c r="G100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="66">
+      <c r="I100" s="39">
         <v>0.84250000000000003</v>
       </c>
-      <c r="J100" s="66">
+      <c r="J100" s="39">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="39"/>
-      <c r="B101" s="41"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
       <c r="G101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="66">
+      <c r="I101" s="39">
         <v>0.84240000000000004</v>
       </c>
-      <c r="J101" s="66">
+      <c r="J101" s="39">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="39"/>
-      <c r="B102" s="41" t="s">
+      <c r="A102" s="46"/>
+      <c r="B102" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -3506,71 +3506,71 @@
       <c r="D102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="42">
+      <c r="E102" s="43">
         <v>0.3</v>
       </c>
-      <c r="F102" s="42">
-        <v>0</v>
-      </c>
-      <c r="G102" s="37" t="s">
+      <c r="F102" s="43">
+        <v>0</v>
+      </c>
+      <c r="G102" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="66">
+      <c r="I102" s="39">
         <v>0.84250000000000003</v>
       </c>
-      <c r="J102" s="66">
+      <c r="J102" s="39">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="39"/>
-      <c r="B103" s="41"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="37"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="44"/>
       <c r="H103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I103" s="66">
+      <c r="I103" s="39">
         <v>0.8427</v>
       </c>
-      <c r="J103" s="66">
+      <c r="J103" s="39">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="39"/>
-      <c r="B104" s="41"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="37"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="44"/>
       <c r="H104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I104" s="66">
+      <c r="I104" s="39">
         <v>0.84389999999999998</v>
       </c>
-      <c r="J104" s="66">
+      <c r="J104" s="39">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="8" t="s">
         <v>42</v>
       </c>
@@ -3696,25 +3696,25 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="66"/>
-    <col min="10" max="10" width="12.83203125" style="66" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="39"/>
+    <col min="10" max="10" width="12.83203125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="67" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -3725,10 +3725,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3781,15 +3781,15 @@
       <c r="H5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="39">
         <v>0.35220000000000001</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="39">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3813,15 +3813,15 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="39">
         <v>0.8589</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="39">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
@@ -3845,8 +3845,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3855,10 +3855,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="51">
-        <v>0</v>
-      </c>
-      <c r="F8" s="51">
+      <c r="E8" s="57">
+        <v>0</v>
+      </c>
+      <c r="F8" s="57">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3869,16 +3869,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
@@ -3887,16 +3887,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3905,8 +3905,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3915,13 +3915,13 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="51">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="59" t="s">
+      <c r="E11" s="57">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -3929,40 +3929,40 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="50"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3971,65 +3971,65 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="51">
-        <v>0</v>
-      </c>
-      <c r="F14" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="59" t="s">
+      <c r="E14" s="57">
+        <v>0</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="61"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="62"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="45">
-        <v>0</v>
-      </c>
-      <c r="F17" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="45" t="s">
+      <c r="E17" s="51">
+        <v>0</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -4038,14 +4038,14 @@
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="24" t="s">
         <v>8</v>
       </c>
@@ -4100,15 +4100,15 @@
       <c r="H22" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="39">
         <v>0.28920000000000001</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="39">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -4132,15 +4132,15 @@
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="39">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="39">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -4164,8 +4164,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -4174,10 +4174,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="51">
-        <v>0</v>
-      </c>
-      <c r="F25" s="51">
+      <c r="E25" s="57">
+        <v>0</v>
+      </c>
+      <c r="F25" s="57">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4188,16 +4188,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
@@ -4206,16 +4206,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4224,8 +4224,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4234,13 +4234,13 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="51">
-        <v>0</v>
-      </c>
-      <c r="F28" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="59" t="s">
+      <c r="E28" s="57">
+        <v>0</v>
+      </c>
+      <c r="F28" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -4248,40 +4248,40 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="57"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="50"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4290,65 +4290,65 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="51">
-        <v>0</v>
-      </c>
-      <c r="F31" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="59" t="s">
+      <c r="E31" s="57">
+        <v>0</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="61"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="62"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="45">
-        <v>0</v>
-      </c>
-      <c r="F34" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="45" t="s">
+      <c r="E34" s="51">
+        <v>0</v>
+      </c>
+      <c r="F34" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="24" t="s">
@@ -4356,14 +4356,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="46"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="24" t="s">
         <v>8</v>
       </c>
@@ -4427,15 +4427,15 @@
       <c r="H39" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="39">
         <v>0.42280000000000001</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="39">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -4459,15 +4459,15 @@
       <c r="H40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="39">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="66">
+      <c r="J40" s="39">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -4491,8 +4491,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -4501,10 +4501,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="51">
-        <v>0</v>
-      </c>
-      <c r="F42" s="51">
+      <c r="E42" s="57">
+        <v>0</v>
+      </c>
+      <c r="F42" s="57">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4515,16 +4515,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
@@ -4533,16 +4533,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
@@ -4551,8 +4551,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -4561,13 +4561,13 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="51">
-        <v>0</v>
-      </c>
-      <c r="F45" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="59" t="s">
+      <c r="E45" s="57">
+        <v>0</v>
+      </c>
+      <c r="F45" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -4575,40 +4575,40 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="37"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="57"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="50"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -4617,65 +4617,65 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="51">
-        <v>0</v>
-      </c>
-      <c r="F48" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="59" t="s">
+      <c r="E48" s="57">
+        <v>0</v>
+      </c>
+      <c r="F48" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="60" t="s">
+      <c r="H48" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="61"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="62"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="45">
-        <v>0</v>
-      </c>
-      <c r="F51" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="45" t="s">
+      <c r="E51" s="51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="24" t="s">
@@ -4683,14 +4683,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="46"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="52"/>
       <c r="H52" s="24" t="s">
         <v>8</v>
       </c>
@@ -4754,15 +4754,15 @@
       <c r="H56" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="66">
+      <c r="I56" s="39">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J56" s="66">
+      <c r="J56" s="39">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="61" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -4786,15 +4786,15 @@
       <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="66">
+      <c r="I57" s="39">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J57" s="66">
+      <c r="J57" s="39">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -4818,8 +4818,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="56" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -4828,10 +4828,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="51">
-        <v>0</v>
-      </c>
-      <c r="F59" s="51">
+      <c r="E59" s="57">
+        <v>0</v>
+      </c>
+      <c r="F59" s="57">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -4842,16 +4842,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
@@ -4860,16 +4860,16 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="57"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
@@ -4878,8 +4878,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4888,13 +4888,13 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="51">
-        <v>0</v>
-      </c>
-      <c r="F62" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="59" t="s">
+      <c r="E62" s="57">
+        <v>0</v>
+      </c>
+      <c r="F62" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -4902,40 +4902,40 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="37"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="57"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="50"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="56" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4944,65 +4944,65 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="51">
-        <v>0</v>
-      </c>
-      <c r="F65" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="59" t="s">
+      <c r="E65" s="57">
+        <v>0</v>
+      </c>
+      <c r="F65" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="61"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="58"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="62"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="68"/>
     </row>
     <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="45">
-        <v>0</v>
-      </c>
-      <c r="F68" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="E68" s="51">
+        <v>0</v>
+      </c>
+      <c r="F68" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="24" t="s">
@@ -5010,14 +5010,14 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="46"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="52"/>
       <c r="H69" s="24" t="s">
         <v>8</v>
       </c>
@@ -5081,15 +5081,15 @@
       <c r="H73" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="66">
+      <c r="I73" s="39">
         <v>0.73809999999999998</v>
       </c>
-      <c r="J73" s="66">
+      <c r="J73" s="39">
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="61" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -5113,15 +5113,15 @@
       <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="66">
+      <c r="I74" s="39">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J74" s="66">
+      <c r="J74" s="39">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="55"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -5145,8 +5145,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="46"/>
+      <c r="B76" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -5155,10 +5155,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="51">
-        <v>0</v>
-      </c>
-      <c r="F76" s="51">
+      <c r="E76" s="57">
+        <v>0</v>
+      </c>
+      <c r="F76" s="57">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -5169,16 +5169,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -5187,16 +5187,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
-      <c r="B78" s="57"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -5205,8 +5205,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
-      <c r="B79" s="56" t="s">
+      <c r="A79" s="46"/>
+      <c r="B79" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -5215,13 +5215,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="51">
-        <v>0</v>
-      </c>
-      <c r="F79" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="59" t="s">
+      <c r="E79" s="57">
+        <v>0</v>
+      </c>
+      <c r="F79" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -5229,40 +5229,40 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
-      <c r="B80" s="41"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="37"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
-      <c r="B81" s="57"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="50"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
-      <c r="B82" s="56" t="s">
+      <c r="A82" s="46"/>
+      <c r="B82" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -5271,65 +5271,65 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="51">
-        <v>0</v>
-      </c>
-      <c r="F82" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="59" t="s">
+      <c r="E82" s="57">
+        <v>0</v>
+      </c>
+      <c r="F82" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="60" t="s">
+      <c r="H82" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="39"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="61"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="67"/>
     </row>
     <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="58"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="62"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="68"/>
     </row>
     <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
-      <c r="B85" s="47" t="s">
+      <c r="B85" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="45">
-        <v>0</v>
-      </c>
-      <c r="F85" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="45" t="s">
+      <c r="E85" s="51">
+        <v>0</v>
+      </c>
+      <c r="F85" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="24" t="s">
@@ -5337,14 +5337,14 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="46"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="52"/>
       <c r="H86" s="24" t="s">
         <v>8</v>
       </c>
@@ -5466,23 +5466,23 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="63" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="63" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -5493,10 +5493,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -5523,10 +5523,10 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5553,15 +5553,15 @@
       <c r="H5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="39">
         <v>0.35220000000000001</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="39">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5585,15 +5585,15 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="39">
         <v>0.8589</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="39">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
@@ -5617,8 +5617,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5627,10 +5627,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="51">
-        <v>0</v>
-      </c>
-      <c r="F8" s="51">
+      <c r="E8" s="57">
+        <v>0</v>
+      </c>
+      <c r="F8" s="57">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -5641,16 +5641,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
@@ -5659,16 +5659,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
@@ -5677,8 +5677,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5687,13 +5687,13 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="51">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="59" t="s">
+      <c r="E11" s="57">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -5701,40 +5701,40 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="50"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5743,65 +5743,65 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="51">
-        <v>0</v>
-      </c>
-      <c r="F14" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="59" t="s">
+      <c r="E14" s="57">
+        <v>0</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="61"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="62"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="45">
-        <v>0</v>
-      </c>
-      <c r="F17" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="45" t="s">
+      <c r="E17" s="51">
+        <v>0</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -5810,14 +5810,14 @@
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="24" t="s">
         <v>8</v>
       </c>
@@ -5872,15 +5872,15 @@
       <c r="H22" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="39">
         <v>0.28920000000000001</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="39">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -5904,15 +5904,15 @@
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="39">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="39">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -5936,8 +5936,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -5946,10 +5946,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="51">
-        <v>0</v>
-      </c>
-      <c r="F25" s="51">
+      <c r="E25" s="57">
+        <v>0</v>
+      </c>
+      <c r="F25" s="57">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -5960,16 +5960,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
@@ -5978,16 +5978,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
@@ -5996,8 +5996,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -6006,13 +6006,13 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="51">
-        <v>0</v>
-      </c>
-      <c r="F28" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="59" t="s">
+      <c r="E28" s="57">
+        <v>0</v>
+      </c>
+      <c r="F28" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -6020,40 +6020,40 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="57"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="50"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -6062,65 +6062,65 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="51">
-        <v>0</v>
-      </c>
-      <c r="F31" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="59" t="s">
+      <c r="E31" s="57">
+        <v>0</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="61"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="62"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="45">
-        <v>0</v>
-      </c>
-      <c r="F34" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="45" t="s">
+      <c r="E34" s="51">
+        <v>0</v>
+      </c>
+      <c r="F34" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="24" t="s">
@@ -6129,14 +6129,14 @@
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="46"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="24" t="s">
         <v>8</v>
       </c>
@@ -6191,15 +6191,15 @@
       <c r="H39" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="39">
         <v>0.42280000000000001</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="39">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -6223,15 +6223,15 @@
       <c r="H40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="39">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="66">
+      <c r="J40" s="39">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -6255,8 +6255,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -6265,10 +6265,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="51">
-        <v>0</v>
-      </c>
-      <c r="F42" s="51">
+      <c r="E42" s="57">
+        <v>0</v>
+      </c>
+      <c r="F42" s="57">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6279,16 +6279,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
@@ -6297,16 +6297,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
@@ -6315,8 +6315,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -6325,13 +6325,13 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="51">
-        <v>0</v>
-      </c>
-      <c r="F45" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="59" t="s">
+      <c r="E45" s="57">
+        <v>0</v>
+      </c>
+      <c r="F45" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -6339,40 +6339,40 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="37"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="57"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="50"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -6381,65 +6381,65 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="51">
-        <v>0</v>
-      </c>
-      <c r="F48" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="59" t="s">
+      <c r="E48" s="57">
+        <v>0</v>
+      </c>
+      <c r="F48" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="60" t="s">
+      <c r="H48" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="61"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="62"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="45">
-        <v>0</v>
-      </c>
-      <c r="F51" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="45" t="s">
+      <c r="E51" s="51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="24" t="s">
@@ -6448,14 +6448,14 @@
     </row>
     <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="46"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="52"/>
       <c r="H52" s="24" t="s">
         <v>8</v>
       </c>
@@ -6510,15 +6510,15 @@
       <c r="H56" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="66">
+      <c r="I56" s="39">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J56" s="66">
+      <c r="J56" s="39">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="61" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -6542,15 +6542,15 @@
       <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="66">
+      <c r="I57" s="39">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J57" s="66">
+      <c r="J57" s="39">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -6574,8 +6574,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="56" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -6584,10 +6584,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="51">
-        <v>0</v>
-      </c>
-      <c r="F59" s="51">
+      <c r="E59" s="57">
+        <v>0</v>
+      </c>
+      <c r="F59" s="57">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -6598,16 +6598,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
@@ -6616,16 +6616,16 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="57"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
@@ -6634,8 +6634,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -6644,13 +6644,13 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="51">
-        <v>0</v>
-      </c>
-      <c r="F62" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="59" t="s">
+      <c r="E62" s="57">
+        <v>0</v>
+      </c>
+      <c r="F62" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -6658,40 +6658,40 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="37"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="57"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="50"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="56" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -6700,65 +6700,65 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="51">
-        <v>0</v>
-      </c>
-      <c r="F65" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="59" t="s">
+      <c r="E65" s="57">
+        <v>0</v>
+      </c>
+      <c r="F65" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="61"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="58"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="62"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="68"/>
     </row>
     <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="45">
-        <v>0</v>
-      </c>
-      <c r="F68" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="E68" s="51">
+        <v>0</v>
+      </c>
+      <c r="F68" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="24" t="s">
@@ -6767,14 +6767,14 @@
     </row>
     <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="46"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="52"/>
       <c r="H69" s="24" t="s">
         <v>8</v>
       </c>
@@ -6829,15 +6829,15 @@
       <c r="H73" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="66">
+      <c r="I73" s="39">
         <v>0.73809999999999998</v>
       </c>
-      <c r="J73" s="66">
+      <c r="J73" s="39">
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="61" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -6861,15 +6861,15 @@
       <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="66">
+      <c r="I74" s="39">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J74" s="66">
+      <c r="J74" s="39">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="55"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -6893,8 +6893,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="46"/>
+      <c r="B76" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -6903,10 +6903,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="51">
-        <v>0</v>
-      </c>
-      <c r="F76" s="51">
+      <c r="E76" s="57">
+        <v>0</v>
+      </c>
+      <c r="F76" s="57">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -6917,16 +6917,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -6935,16 +6935,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
-      <c r="B78" s="57"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -6953,8 +6953,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
-      <c r="B79" s="56" t="s">
+      <c r="A79" s="46"/>
+      <c r="B79" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -6963,13 +6963,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="51">
-        <v>0</v>
-      </c>
-      <c r="F79" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="59" t="s">
+      <c r="E79" s="57">
+        <v>0</v>
+      </c>
+      <c r="F79" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -6977,40 +6977,40 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
-      <c r="B80" s="41"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="37"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
-      <c r="B81" s="57"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="50"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
-      <c r="B82" s="56" t="s">
+      <c r="A82" s="46"/>
+      <c r="B82" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -7019,65 +7019,65 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="51">
-        <v>0</v>
-      </c>
-      <c r="F82" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="59" t="s">
+      <c r="E82" s="57">
+        <v>0</v>
+      </c>
+      <c r="F82" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="60" t="s">
+      <c r="H82" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="39"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="61"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="67"/>
     </row>
     <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="58"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="62"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="68"/>
     </row>
     <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
-      <c r="B85" s="47" t="s">
+      <c r="B85" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="45">
-        <v>0</v>
-      </c>
-      <c r="F85" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="45" t="s">
+      <c r="E85" s="51">
+        <v>0</v>
+      </c>
+      <c r="F85" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="24" t="s">
@@ -7086,14 +7086,14 @@
     </row>
     <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="46"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="52"/>
       <c r="H86" s="24" t="s">
         <v>8</v>
       </c>
@@ -7202,7 +7202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A5C5F8-3311-604C-9DB4-AD5D59E03971}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="H56" sqref="H56:I56"/>
     </sheetView>
   </sheetViews>
@@ -7219,22 +7219,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -7266,7 +7266,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -7287,15 +7287,15 @@
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="39">
         <v>0.8589</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="39">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -7316,8 +7316,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7326,10 +7326,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="51">
+      <c r="E6" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="57">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -7337,38 +7337,38 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -7377,73 +7377,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="59" t="s">
+      <c r="E9" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="46"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="45">
-        <v>0</v>
-      </c>
-      <c r="F12" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="45" t="s">
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -7470,7 +7470,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -7491,15 +7491,15 @@
       <c r="G17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="39">
         <v>0.73580000000000001</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="39">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -7520,8 +7520,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7530,10 +7530,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="51">
+      <c r="E19" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="57">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -7541,38 +7541,38 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -7581,74 +7581,74 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="59" t="s">
+      <c r="E22" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="37"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="46"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="45">
-        <v>0</v>
-      </c>
-      <c r="F25" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="45" t="s">
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+      <c r="F25" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7676,7 +7676,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -7697,15 +7697,15 @@
       <c r="G30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="39">
         <v>0.89239999999999997</v>
       </c>
-      <c r="I30" s="66">
+      <c r="I30" s="39">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -7726,8 +7726,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -7736,10 +7736,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="51">
+      <c r="E32" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="57">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -7747,38 +7747,38 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="57"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -7787,74 +7787,74 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="59" t="s">
+      <c r="E35" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="37"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="46"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="45">
-        <v>0</v>
-      </c>
-      <c r="F38" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="45" t="s">
+      <c r="E38" s="51">
+        <v>0</v>
+      </c>
+      <c r="F38" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="46"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="52"/>
       <c r="H39" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7882,7 +7882,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -7903,15 +7903,15 @@
       <c r="G43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="66">
+      <c r="H43" s="39">
         <v>0.88339999999999996</v>
       </c>
-      <c r="I43" s="66">
+      <c r="I43" s="39">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -7932,8 +7932,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -7942,10 +7942,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="51">
+      <c r="E45" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="57">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -7953,38 +7953,38 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="57"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -7993,74 +7993,74 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="59" t="s">
+      <c r="E48" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="37"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="46"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="45">
-        <v>0</v>
-      </c>
-      <c r="F51" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="45" t="s">
+      <c r="E51" s="51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="46"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="52"/>
       <c r="H52" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8088,7 +8088,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -8109,15 +8109,15 @@
       <c r="G56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="66">
+      <c r="H56" s="39">
         <v>0.85850000000000004</v>
       </c>
-      <c r="I56" s="66">
+      <c r="I56" s="39">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -8138,8 +8138,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -8148,10 +8148,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="51">
+      <c r="E58" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="57">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -8159,38 +8159,38 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="57"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="56" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -8199,74 +8199,74 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="59" t="s">
+      <c r="E61" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="37"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="46"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="45">
-        <v>0</v>
-      </c>
-      <c r="F64" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="45" t="s">
+      <c r="E64" s="51">
+        <v>0</v>
+      </c>
+      <c r="F64" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="46"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="52"/>
       <c r="H65" s="30"/>
     </row>
   </sheetData>
@@ -8365,22 +8365,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8412,7 +8412,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -8433,15 +8433,15 @@
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="39">
         <v>0.8589</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="39">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -8462,8 +8462,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8472,10 +8472,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="51">
+      <c r="E6" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="57">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -8483,38 +8483,38 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -8523,73 +8523,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="59" t="s">
+      <c r="E9" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="46"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="45">
-        <v>0</v>
-      </c>
-      <c r="F12" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="45" t="s">
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8616,7 +8616,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -8637,15 +8637,15 @@
       <c r="G17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="39">
         <v>0.73580000000000001</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="39">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -8666,8 +8666,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -8676,10 +8676,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="51">
+      <c r="E19" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="57">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -8687,38 +8687,38 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -8727,73 +8727,73 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="59" t="s">
+      <c r="E22" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="37"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="46"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="45">
-        <v>0</v>
-      </c>
-      <c r="F25" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="45" t="s">
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+      <c r="F25" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -8820,7 +8820,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -8841,15 +8841,15 @@
       <c r="G30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="39">
         <v>0.89239999999999997</v>
       </c>
-      <c r="I30" s="66">
+      <c r="I30" s="39">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -8870,8 +8870,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -8880,10 +8880,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="51">
+      <c r="E32" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="57">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -8891,38 +8891,38 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="57"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -8931,73 +8931,73 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="59" t="s">
+      <c r="E35" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="37"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="46"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="45">
-        <v>0</v>
-      </c>
-      <c r="F38" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="45" t="s">
+      <c r="E38" s="51">
+        <v>0</v>
+      </c>
+      <c r="F38" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="46"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -9024,7 +9024,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -9045,15 +9045,15 @@
       <c r="G43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="66">
+      <c r="H43" s="39">
         <v>0.88339999999999996</v>
       </c>
-      <c r="I43" s="66">
+      <c r="I43" s="39">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -9074,8 +9074,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -9084,10 +9084,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="51">
+      <c r="E45" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="57">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -9095,38 +9095,38 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="57"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -9135,73 +9135,73 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="59" t="s">
+      <c r="E48" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="37"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="46"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="45">
-        <v>0</v>
-      </c>
-      <c r="F51" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="45" t="s">
+      <c r="E51" s="51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="46"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9228,7 +9228,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="61" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -9249,15 +9249,15 @@
       <c r="G56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="66">
+      <c r="H56" s="39">
         <v>0.85850000000000004</v>
       </c>
-      <c r="I56" s="66">
+      <c r="I56" s="39">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -9278,8 +9278,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -9288,10 +9288,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="51">
+      <c r="E58" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="57">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -9299,38 +9299,38 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="57"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="56" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -9339,73 +9339,73 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="59" t="s">
+      <c r="E61" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="37"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="46"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="45">
-        <v>0</v>
-      </c>
-      <c r="F64" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="45" t="s">
+      <c r="E64" s="51">
+        <v>0</v>
+      </c>
+      <c r="F64" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="46"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="67">

--- a/Final Result/06XX.xlsx
+++ b/Final Result/06XX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA6F96-C5EA-E548-A058-BCAD182270C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B4440-69D0-804A-8189-6FA7641CD47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure-only Core Subgraph" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="44">
   <si>
     <t>Method</t>
   </si>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,18 +208,37 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -532,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,14 +665,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -665,19 +689,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -689,51 +746,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD3DA2-AFDD-A94B-906F-D74F5151AC29}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,25 +1093,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="49" t="s">
         <v>41</v>
       </c>
@@ -1126,7 +1150,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -1148,15 +1172,15 @@
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="72">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="72">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1178,15 +1202,15 @@
       <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="71">
         <v>0.8589</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="71">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -1208,16 +1232,16 @@
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="74">
         <v>0.71740000000000004</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="74">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1226,10 +1250,10 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="E7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="45">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1246,16 +1270,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1270,16 +1294,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1294,8 +1318,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1304,13 +1328,13 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="43">
-        <v>0</v>
-      </c>
-      <c r="G10" s="44" t="s">
+      <c r="E10" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0</v>
+      </c>
+      <c r="G10" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1324,17 +1348,17 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1346,17 +1370,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1392,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
@@ -1390,9 +1414,15 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I13" s="73">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="J13" s="73">
+        <v>2.53E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -1414,16 +1444,16 @@
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="70">
         <v>0.80300000000000005</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="70">
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1432,10 +1462,10 @@
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="45">
         <v>0.3</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="45">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1452,16 +1482,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1476,16 +1506,16 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1500,8 +1530,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1510,13 +1540,13 @@
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="45">
         <v>0.3</v>
       </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="44" t="s">
+      <c r="F18" s="45">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1530,17 +1560,17 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1552,17 +1582,17 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1604,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
@@ -1595,6 +1625,12 @@
       </c>
       <c r="H21" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="I21" s="73">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="J21" s="73">
+        <v>2.53E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1667,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -1653,15 +1689,15 @@
       <c r="H25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="72">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="72">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1681,15 +1717,15 @@
       <c r="H26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="71">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="71">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
@@ -1709,16 +1745,16 @@
       <c r="H27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="74">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1727,10 +1763,10 @@
       <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="43">
+      <c r="E28" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="45">
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1742,21 +1778,21 @@
       <c r="I28" s="39">
         <v>0.6946</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="41">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1766,21 +1802,21 @@
       <c r="I29" s="39">
         <v>0.6946</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="41">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="4" t="s">
         <v>5</v>
       </c>
@@ -1790,13 +1826,13 @@
       <c r="I30" s="39">
         <v>0.6946</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1805,13 +1841,13 @@
       <c r="D31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="43">
-        <v>0</v>
-      </c>
-      <c r="G31" s="44" t="s">
+      <c r="E31" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="45">
+        <v>0</v>
+      </c>
+      <c r="G31" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -1825,17 +1861,17 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="4" t="s">
         <v>5</v>
       </c>
@@ -1847,17 +1883,17 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="4" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1905,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1891,9 +1927,15 @@
       <c r="H34" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="I34" s="39">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="J34" s="39">
+        <v>2.12E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
@@ -1921,8 +1963,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1931,10 +1973,10 @@
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="45">
         <v>0.3</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="45">
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -1951,16 +1993,16 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1975,16 +2017,16 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="4" t="s">
         <v>5</v>
       </c>
@@ -1999,8 +2041,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2009,13 +2051,13 @@
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="45">
         <v>0.3</v>
       </c>
-      <c r="F39" s="43">
-        <v>0</v>
-      </c>
-      <c r="G39" s="44" t="s">
+      <c r="F39" s="45">
+        <v>0</v>
+      </c>
+      <c r="G39" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -2029,17 +2071,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="4" t="s">
         <v>5</v>
       </c>
@@ -2051,17 +2093,17 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="4" t="s">
         <v>5</v>
       </c>
@@ -2073,7 +2115,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -2094,6 +2136,12 @@
       </c>
       <c r="H42" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="I42" s="73">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="J42" s="73">
+        <v>2.12E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2178,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -2152,15 +2200,15 @@
       <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="39">
+      <c r="I46" s="72">
         <v>0.79139999999999999</v>
       </c>
-      <c r="J46" s="39">
+      <c r="J46" s="72">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
@@ -2180,15 +2228,15 @@
       <c r="H47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="39">
+      <c r="I47" s="71">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="71">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2216,8 +2264,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="48" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2226,10 +2274,10 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="43">
+      <c r="E49" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="45">
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -2246,16 +2294,16 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="4" t="s">
         <v>5</v>
       </c>
@@ -2270,16 +2318,16 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="4" t="s">
         <v>5</v>
       </c>
@@ -2294,8 +2342,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
-      <c r="B52" s="48" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2304,13 +2352,13 @@
       <c r="D52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F52" s="43">
-        <v>0</v>
-      </c>
-      <c r="G52" s="44" t="s">
+      <c r="E52" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="45">
+        <v>0</v>
+      </c>
+      <c r="G52" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -2324,17 +2372,17 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
-      <c r="B53" s="48"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="4" t="s">
         <v>5</v>
       </c>
@@ -2346,17 +2394,17 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
-      <c r="B54" s="48"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="4" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2416,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="9" t="s">
         <v>42</v>
       </c>
@@ -2390,9 +2438,15 @@
       <c r="H55" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="I55" s="75">
+        <v>0.81989999999999996</v>
+      </c>
+      <c r="J55" s="75">
+        <v>8.3999999999999995E-3</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="10" t="s">
         <v>7</v>
       </c>
@@ -2420,8 +2474,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="48" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2430,10 +2484,10 @@
       <c r="D57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="45">
         <v>0.3</v>
       </c>
-      <c r="F57" s="43">
+      <c r="F57" s="45">
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2450,16 +2504,16 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="48"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="4" t="s">
         <v>5</v>
       </c>
@@ -2474,16 +2528,16 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="48"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
@@ -2498,8 +2552,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="48" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2508,13 +2562,13 @@
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="45">
         <v>0.3</v>
       </c>
-      <c r="F60" s="43">
-        <v>0</v>
-      </c>
-      <c r="G60" s="44" t="s">
+      <c r="F60" s="45">
+        <v>0</v>
+      </c>
+      <c r="G60" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -2528,17 +2582,17 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
-      <c r="B61" s="48"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="4" t="s">
         <v>5</v>
       </c>
@@ -2550,17 +2604,17 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="4" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2626,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
@@ -2593,6 +2647,12 @@
       </c>
       <c r="H63" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="I63" s="39">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="J63" s="39">
+        <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2689,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -2651,15 +2711,15 @@
       <c r="H67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="39">
+      <c r="I67" s="72">
         <v>0.75160000000000005</v>
       </c>
-      <c r="J67" s="39">
+      <c r="J67" s="72">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="8" t="s">
         <v>6</v>
       </c>
@@ -2679,15 +2739,15 @@
       <c r="H68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="39">
+      <c r="I68" s="71">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J68" s="39">
+      <c r="J68" s="71">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
@@ -2707,16 +2767,16 @@
       <c r="H69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="39">
+      <c r="I69" s="75">
         <v>0.74629999999999996</v>
       </c>
-      <c r="J69" s="39">
+      <c r="J69" s="75">
         <v>1.21E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
-      <c r="B70" s="48" t="s">
+      <c r="A70" s="47"/>
+      <c r="B70" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -2725,10 +2785,10 @@
       <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F70" s="43">
+      <c r="E70" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="45">
         <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -2745,16 +2805,16 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="4" t="s">
         <v>5</v>
       </c>
@@ -2769,16 +2829,16 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="46"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="4" t="s">
         <v>5</v>
       </c>
@@ -2793,8 +2853,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="46"/>
-      <c r="B73" s="48" t="s">
+      <c r="A73" s="47"/>
+      <c r="B73" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -2803,13 +2863,13 @@
       <c r="D73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F73" s="43">
-        <v>0</v>
-      </c>
-      <c r="G73" s="44" t="s">
+      <c r="E73" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="45">
+        <v>0</v>
+      </c>
+      <c r="G73" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2823,17 +2883,17 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="46"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="44"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="42"/>
       <c r="H74" s="4" t="s">
         <v>5</v>
       </c>
@@ -2845,17 +2905,17 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="46"/>
-      <c r="B75" s="48"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="44"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="42"/>
       <c r="H75" s="4" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2927,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
@@ -2889,9 +2949,15 @@
       <c r="H76" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I76" s="39">
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="J76" s="39">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="10" t="s">
         <v>7</v>
       </c>
@@ -2919,8 +2985,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="46"/>
-      <c r="B78" s="48" t="s">
+      <c r="A78" s="47"/>
+      <c r="B78" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -2929,10 +2995,10 @@
       <c r="D78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="43">
+      <c r="E78" s="45">
         <v>0.3</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="45">
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -2949,16 +3015,16 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
-      <c r="B79" s="48"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="4" t="s">
         <v>5</v>
       </c>
@@ -2973,16 +3039,16 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="46"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="4" t="s">
         <v>5</v>
       </c>
@@ -2997,8 +3063,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
-      <c r="B81" s="48" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -3007,13 +3073,13 @@
       <c r="D81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="43">
+      <c r="E81" s="45">
         <v>0.3</v>
       </c>
-      <c r="F81" s="43">
-        <v>0</v>
-      </c>
-      <c r="G81" s="44" t="s">
+      <c r="F81" s="45">
+        <v>0</v>
+      </c>
+      <c r="G81" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -3027,17 +3093,17 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
-      <c r="B82" s="48"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="44"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="4" t="s">
         <v>5</v>
       </c>
@@ -3049,17 +3115,17 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
-      <c r="B83" s="48"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="44"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="4" t="s">
         <v>5</v>
       </c>
@@ -3071,7 +3137,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="8" t="s">
         <v>42</v>
       </c>
@@ -3092,6 +3158,12 @@
       </c>
       <c r="H84" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="I84" s="39">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="J84" s="39">
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3200,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -3150,15 +3222,15 @@
       <c r="H88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="39">
+      <c r="I88" s="72">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J88" s="39">
+      <c r="J88" s="72">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="46"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="8" t="s">
         <v>6</v>
       </c>
@@ -3178,15 +3250,15 @@
       <c r="H89" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="39">
+      <c r="I89" s="71">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="71">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="46"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="10" t="s">
         <v>7</v>
       </c>
@@ -3214,8 +3286,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="46"/>
-      <c r="B91" s="48" t="s">
+      <c r="A91" s="47"/>
+      <c r="B91" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -3224,10 +3296,10 @@
       <c r="D91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F91" s="43">
+      <c r="E91" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F91" s="45">
         <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -3244,16 +3316,16 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="46"/>
-      <c r="B92" s="48"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="4" t="s">
         <v>5</v>
       </c>
@@ -3268,16 +3340,16 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="46"/>
-      <c r="B93" s="48"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
       <c r="G93" s="4" t="s">
         <v>5</v>
       </c>
@@ -3292,8 +3364,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="46"/>
-      <c r="B94" s="48" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -3302,13 +3374,13 @@
       <c r="D94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F94" s="43">
-        <v>0</v>
-      </c>
-      <c r="G94" s="44" t="s">
+      <c r="E94" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F94" s="45">
+        <v>0</v>
+      </c>
+      <c r="G94" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="4" t="s">
@@ -3322,17 +3394,17 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="46"/>
-      <c r="B95" s="48"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="44"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="42"/>
       <c r="H95" s="4" t="s">
         <v>5</v>
       </c>
@@ -3344,17 +3416,17 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="46"/>
-      <c r="B96" s="48"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="44"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="42"/>
       <c r="H96" s="4" t="s">
         <v>5</v>
       </c>
@@ -3366,7 +3438,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="46"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="8" t="s">
         <v>42</v>
       </c>
@@ -3388,9 +3460,15 @@
       <c r="H97" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I97" s="39">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="J97" s="39">
+        <v>4.8999999999999998E-3</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="46"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="10" t="s">
         <v>7</v>
       </c>
@@ -3418,8 +3496,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="46"/>
-      <c r="B99" s="48" t="s">
+      <c r="A99" s="47"/>
+      <c r="B99" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -3428,10 +3506,10 @@
       <c r="D99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="43">
+      <c r="E99" s="45">
         <v>0.3</v>
       </c>
-      <c r="F99" s="43">
+      <c r="F99" s="45">
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -3448,16 +3526,16 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="46"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="4" t="s">
         <v>5</v>
       </c>
@@ -3472,16 +3550,16 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="46"/>
-      <c r="B101" s="48"/>
+      <c r="A101" s="47"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="4" t="s">
         <v>5</v>
       </c>
@@ -3496,8 +3574,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="46"/>
-      <c r="B102" s="48" t="s">
+      <c r="A102" s="47"/>
+      <c r="B102" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -3506,13 +3584,13 @@
       <c r="D102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="43">
+      <c r="E102" s="45">
         <v>0.3</v>
       </c>
-      <c r="F102" s="43">
-        <v>0</v>
-      </c>
-      <c r="G102" s="44" t="s">
+      <c r="F102" s="45">
+        <v>0</v>
+      </c>
+      <c r="G102" s="42" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -3526,17 +3604,17 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="46"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="44"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="42"/>
       <c r="H103" s="4" t="s">
         <v>5</v>
       </c>
@@ -3548,17 +3626,17 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="46"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="44"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="42"/>
       <c r="H104" s="4" t="s">
         <v>5</v>
       </c>
@@ -3570,7 +3648,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="8" t="s">
         <v>42</v>
       </c>
@@ -3592,15 +3670,71 @@
       <c r="H105" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I105" s="39">
+        <v>0.8528</v>
+      </c>
+      <c r="J105" s="39">
+        <v>4.8999999999999998E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="A67:A84"/>
+    <mergeCell ref="A88:A105"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="A46:A63"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A25:A42"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E28:E30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="E91:E93"/>
@@ -3617,62 +3751,12 @@
     <mergeCell ref="F73:F75"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G31:G33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A25:A42"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A46:A63"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="A67:A84"/>
-    <mergeCell ref="A88:A105"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G81:G83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3682,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F743D4C-E85F-EF45-ABB1-D1AF09A7D54B}">
   <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="141" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73:J73"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3701,19 +3785,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="49" t="s">
-        <v>41</v>
-      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3725,12 +3807,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>40</v>
-      </c>
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -3756,6 +3836,12 @@
       </c>
       <c r="H4" s="18" t="s">
         <v>21</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3789,7 +3875,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3821,7 +3907,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
@@ -3845,8 +3931,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3855,10 +3941,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="57">
-        <v>0</v>
-      </c>
-      <c r="F8" s="57">
+      <c r="E8" s="56">
+        <v>0</v>
+      </c>
+      <c r="F8" s="56">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3869,16 +3955,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +3973,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="64"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -3895,8 +3981,8 @@
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3905,8 +3991,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3915,13 +4001,13 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="57">
-        <v>0</v>
-      </c>
-      <c r="F11" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -3929,23 +4015,23 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="64"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -3953,16 +4039,16 @@
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3971,65 +4057,65 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="57">
-        <v>0</v>
-      </c>
-      <c r="F14" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="60" t="s">
+      <c r="E14" s="56">
+        <v>0</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="67"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="68"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="51">
-        <v>0</v>
-      </c>
-      <c r="F17" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="E17" s="61">
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -4038,14 +4124,14 @@
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="52"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="24" t="s">
         <v>8</v>
       </c>
@@ -4108,7 +4194,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -4140,7 +4226,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -4164,8 +4250,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -4174,10 +4260,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="57">
-        <v>0</v>
-      </c>
-      <c r="F25" s="57">
+      <c r="E25" s="56">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4188,16 +4274,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
@@ -4206,7 +4292,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="64"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
@@ -4214,8 +4300,8 @@
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4224,8 +4310,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4234,13 +4320,13 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="57">
-        <v>0</v>
-      </c>
-      <c r="F28" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="60" t="s">
+      <c r="E28" s="56">
+        <v>0</v>
+      </c>
+      <c r="F28" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -4248,23 +4334,23 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="64"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
@@ -4272,16 +4358,16 @@
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4290,65 +4376,65 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="57">
-        <v>0</v>
-      </c>
-      <c r="F31" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="60" t="s">
+      <c r="E31" s="56">
+        <v>0</v>
+      </c>
+      <c r="F31" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="67"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="68"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="51">
-        <v>0</v>
-      </c>
-      <c r="F34" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="51" t="s">
+      <c r="E34" s="61">
+        <v>0</v>
+      </c>
+      <c r="F34" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="24" t="s">
@@ -4356,14 +4442,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="24" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4521,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -4467,7 +4553,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -4491,8 +4577,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="63" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -4501,10 +4587,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="57">
-        <v>0</v>
-      </c>
-      <c r="F42" s="57">
+      <c r="E42" s="56">
+        <v>0</v>
+      </c>
+      <c r="F42" s="56">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4515,16 +4601,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
@@ -4533,7 +4619,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="46"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="64"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
@@ -4541,8 +4627,8 @@
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
@@ -4551,8 +4637,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="63" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -4561,13 +4647,13 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="57">
-        <v>0</v>
-      </c>
-      <c r="F45" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="60" t="s">
+      <c r="E45" s="56">
+        <v>0</v>
+      </c>
+      <c r="F45" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -4575,23 +4661,23 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
@@ -4599,16 +4685,16 @@
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="63" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -4617,65 +4703,65 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="57">
-        <v>0</v>
-      </c>
-      <c r="F48" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="60" t="s">
+      <c r="E48" s="56">
+        <v>0</v>
+      </c>
+      <c r="F48" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="66" t="s">
+      <c r="H48" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="67"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="68"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="51" t="s">
+      <c r="E51" s="61">
+        <v>0</v>
+      </c>
+      <c r="F51" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="24" t="s">
@@ -4683,14 +4769,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="24" t="s">
         <v>8</v>
       </c>
@@ -4762,7 +4848,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -4794,7 +4880,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -4818,8 +4904,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="63" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -4828,10 +4914,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="57">
-        <v>0</v>
-      </c>
-      <c r="F59" s="57">
+      <c r="E59" s="56">
+        <v>0</v>
+      </c>
+      <c r="F59" s="56">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -4842,16 +4928,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
@@ -4860,7 +4946,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="64"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
@@ -4868,8 +4954,8 @@
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
@@ -4878,8 +4964,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="63" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4888,13 +4974,13 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="57">
-        <v>0</v>
-      </c>
-      <c r="F62" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="60" t="s">
+      <c r="E62" s="56">
+        <v>0</v>
+      </c>
+      <c r="F62" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -4902,23 +4988,23 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="44"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="64"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
@@ -4926,16 +5012,16 @@
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="56"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="63" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4944,65 +5030,65 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="57">
-        <v>0</v>
-      </c>
-      <c r="F65" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="60" t="s">
+      <c r="E65" s="56">
+        <v>0</v>
+      </c>
+      <c r="F65" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="66" t="s">
+      <c r="H65" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="67"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="65"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="68"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="51">
-        <v>0</v>
-      </c>
-      <c r="F68" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="E68" s="61">
+        <v>0</v>
+      </c>
+      <c r="F68" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="24" t="s">
@@ -5010,14 +5096,14 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="52"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="24" t="s">
         <v>8</v>
       </c>
@@ -5057,6 +5143,12 @@
       <c r="H72" s="18" t="s">
         <v>21</v>
       </c>
+      <c r="I72" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="40" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
@@ -5089,7 +5181,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="62" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -5121,7 +5213,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -5145,8 +5237,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
-      <c r="B76" s="63" t="s">
+      <c r="A76" s="47"/>
+      <c r="B76" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -5155,10 +5247,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="57">
-        <v>0</v>
-      </c>
-      <c r="F76" s="57">
+      <c r="E76" s="56">
+        <v>0</v>
+      </c>
+      <c r="F76" s="56">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -5169,16 +5261,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
-      <c r="B77" s="48"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -5187,7 +5279,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="46"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="64"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
@@ -5195,8 +5287,8 @@
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -5205,8 +5297,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
-      <c r="B79" s="63" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -5215,13 +5307,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="57">
-        <v>0</v>
-      </c>
-      <c r="F79" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="60" t="s">
+      <c r="E79" s="56">
+        <v>0</v>
+      </c>
+      <c r="F79" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -5229,23 +5321,23 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="46"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="44"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="64"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
@@ -5253,16 +5345,16 @@
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
-      <c r="B82" s="63" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -5271,65 +5363,65 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="57">
-        <v>0</v>
-      </c>
-      <c r="F82" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="60" t="s">
+      <c r="E82" s="56">
+        <v>0</v>
+      </c>
+      <c r="F82" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
-      <c r="B83" s="48"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="67"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="65"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="68"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="51">
-        <v>0</v>
-      </c>
-      <c r="F85" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="51" t="s">
+      <c r="E85" s="61">
+        <v>0</v>
+      </c>
+      <c r="F85" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="24" t="s">
@@ -5337,20 +5429,97 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="52"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="55"/>
       <c r="H86" s="24" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="93">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A74:A84"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G51:G52"/>
     <mergeCell ref="H65:H67"/>
     <mergeCell ref="G79:G81"/>
     <mergeCell ref="G82:G84"/>
@@ -5367,82 +5536,6 @@
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="E82:E84"/>
     <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A74:A84"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A6:A16"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5452,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C3A3C-90F9-3641-9386-0565683637CB}">
   <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="145" workbookViewId="0">
-      <selection activeCell="J1" sqref="I1:J1048576"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5471,18 +5564,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -5493,10 +5586,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="69"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -5561,7 +5654,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5593,7 +5686,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
@@ -5617,8 +5710,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5627,10 +5720,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="57">
-        <v>0</v>
-      </c>
-      <c r="F8" s="57">
+      <c r="E8" s="56">
+        <v>0</v>
+      </c>
+      <c r="F8" s="56">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -5641,16 +5734,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
@@ -5659,7 +5752,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="64"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -5667,8 +5760,8 @@
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
@@ -5677,8 +5770,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5687,13 +5780,13 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="57">
-        <v>0</v>
-      </c>
-      <c r="F11" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -5701,23 +5794,23 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="64"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -5725,16 +5818,16 @@
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5743,65 +5836,65 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="57">
-        <v>0</v>
-      </c>
-      <c r="F14" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="60" t="s">
+      <c r="E14" s="56">
+        <v>0</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="67"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="68"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="51">
-        <v>0</v>
-      </c>
-      <c r="F17" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="E17" s="61">
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -5810,14 +5903,14 @@
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="52"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="24" t="s">
         <v>8</v>
       </c>
@@ -5880,7 +5973,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -5912,7 +6005,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -5936,8 +6029,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -5946,10 +6039,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="57">
-        <v>0</v>
-      </c>
-      <c r="F25" s="57">
+      <c r="E25" s="56">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -5960,16 +6053,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
@@ -5978,7 +6071,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="64"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
@@ -5986,8 +6079,8 @@
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
@@ -5996,8 +6089,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -6006,13 +6099,13 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="57">
-        <v>0</v>
-      </c>
-      <c r="F28" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="60" t="s">
+      <c r="E28" s="56">
+        <v>0</v>
+      </c>
+      <c r="F28" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -6020,23 +6113,23 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="64"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
@@ -6044,16 +6137,16 @@
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -6062,65 +6155,65 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="57">
-        <v>0</v>
-      </c>
-      <c r="F31" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="60" t="s">
+      <c r="E31" s="56">
+        <v>0</v>
+      </c>
+      <c r="F31" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="67"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="68"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="51">
-        <v>0</v>
-      </c>
-      <c r="F34" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="51" t="s">
+      <c r="E34" s="61">
+        <v>0</v>
+      </c>
+      <c r="F34" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="24" t="s">
@@ -6129,14 +6222,14 @@
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="24" t="s">
         <v>8</v>
       </c>
@@ -6199,7 +6292,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -6231,7 +6324,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -6255,8 +6348,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="63" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -6265,10 +6358,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="57">
-        <v>0</v>
-      </c>
-      <c r="F42" s="57">
+      <c r="E42" s="56">
+        <v>0</v>
+      </c>
+      <c r="F42" s="56">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6279,16 +6372,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
@@ -6297,7 +6390,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="46"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="64"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
@@ -6305,8 +6398,8 @@
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
@@ -6315,8 +6408,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="63" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -6325,13 +6418,13 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="57">
-        <v>0</v>
-      </c>
-      <c r="F45" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="60" t="s">
+      <c r="E45" s="56">
+        <v>0</v>
+      </c>
+      <c r="F45" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -6339,23 +6432,23 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
@@ -6363,16 +6456,16 @@
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="63" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -6381,65 +6474,65 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="57">
-        <v>0</v>
-      </c>
-      <c r="F48" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="60" t="s">
+      <c r="E48" s="56">
+        <v>0</v>
+      </c>
+      <c r="F48" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="66" t="s">
+      <c r="H48" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="67"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="68"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="51" t="s">
+      <c r="E51" s="61">
+        <v>0</v>
+      </c>
+      <c r="F51" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="24" t="s">
@@ -6448,14 +6541,14 @@
     </row>
     <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="24" t="s">
         <v>8</v>
       </c>
@@ -6518,7 +6611,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -6550,7 +6643,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -6574,8 +6667,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="63" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -6584,10 +6677,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="57">
-        <v>0</v>
-      </c>
-      <c r="F59" s="57">
+      <c r="E59" s="56">
+        <v>0</v>
+      </c>
+      <c r="F59" s="56">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -6598,16 +6691,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
@@ -6616,7 +6709,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="64"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
@@ -6624,8 +6717,8 @@
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
@@ -6634,8 +6727,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="63" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -6644,13 +6737,13 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="57">
-        <v>0</v>
-      </c>
-      <c r="F62" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="60" t="s">
+      <c r="E62" s="56">
+        <v>0</v>
+      </c>
+      <c r="F62" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -6658,23 +6751,23 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="44"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="64"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
@@ -6682,16 +6775,16 @@
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="56"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="63" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -6700,65 +6793,65 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="57">
-        <v>0</v>
-      </c>
-      <c r="F65" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="60" t="s">
+      <c r="E65" s="56">
+        <v>0</v>
+      </c>
+      <c r="F65" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="66" t="s">
+      <c r="H65" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="67"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="65"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="68"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="51">
-        <v>0</v>
-      </c>
-      <c r="F68" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="E68" s="61">
+        <v>0</v>
+      </c>
+      <c r="F68" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="24" t="s">
@@ -6767,14 +6860,14 @@
     </row>
     <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="52"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="24" t="s">
         <v>8</v>
       </c>
@@ -6837,7 +6930,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="62" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -6869,7 +6962,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -6893,8 +6986,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
-      <c r="B76" s="63" t="s">
+      <c r="A76" s="47"/>
+      <c r="B76" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -6903,10 +6996,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="57">
-        <v>0</v>
-      </c>
-      <c r="F76" s="57">
+      <c r="E76" s="56">
+        <v>0</v>
+      </c>
+      <c r="F76" s="56">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -6917,16 +7010,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
-      <c r="B77" s="48"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -6935,7 +7028,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="46"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="64"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
@@ -6943,8 +7036,8 @@
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -6953,8 +7046,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
-      <c r="B79" s="63" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -6963,13 +7056,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="57">
-        <v>0</v>
-      </c>
-      <c r="F79" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="60" t="s">
+      <c r="E79" s="56">
+        <v>0</v>
+      </c>
+      <c r="F79" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -6977,23 +7070,23 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="46"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="44"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="64"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
@@ -7001,16 +7094,16 @@
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
-      <c r="B82" s="63" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -7019,65 +7112,65 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="57">
-        <v>0</v>
-      </c>
-      <c r="F82" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="60" t="s">
+      <c r="E82" s="56">
+        <v>0</v>
+      </c>
+      <c r="F82" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
-      <c r="B83" s="48"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="67"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="65"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="68"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="51">
-        <v>0</v>
-      </c>
-      <c r="F85" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="51" t="s">
+      <c r="E85" s="61">
+        <v>0</v>
+      </c>
+      <c r="F85" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="24" t="s">
@@ -7086,72 +7179,45 @@
     </row>
     <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="52"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="55"/>
       <c r="H86" s="24" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="A74:A84"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="A6:A16"/>
@@ -7168,31 +7234,58 @@
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="A74:A84"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7219,22 +7312,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -7266,7 +7359,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -7295,7 +7388,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -7316,8 +7409,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7326,10 +7419,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="57">
+      <c r="E6" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="56">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -7337,22 +7430,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="64"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -7360,15 +7453,15 @@
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -7377,73 +7470,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="60" t="s">
+      <c r="E9" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="51">
-        <v>0</v>
-      </c>
-      <c r="F12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="51" t="s">
+      <c r="E12" s="61">
+        <v>0</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -7470,7 +7563,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -7499,7 +7592,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -7520,8 +7613,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7530,10 +7623,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="57">
+      <c r="E19" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="56">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -7541,22 +7634,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="64"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
@@ -7564,15 +7657,15 @@
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="63" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -7581,74 +7674,74 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="60" t="s">
+      <c r="E22" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="52"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="51">
-        <v>0</v>
-      </c>
-      <c r="F25" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="51" t="s">
+      <c r="E25" s="61">
+        <v>0</v>
+      </c>
+      <c r="F25" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="52"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7676,7 +7769,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -7705,7 +7798,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -7726,8 +7819,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -7736,10 +7829,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="57">
+      <c r="E32" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="56">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -7747,22 +7840,22 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="64"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
@@ -7770,15 +7863,15 @@
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -7787,74 +7880,74 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="60" t="s">
+      <c r="E35" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="52"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="51">
-        <v>0</v>
-      </c>
-      <c r="F38" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="51" t="s">
+      <c r="E38" s="61">
+        <v>0</v>
+      </c>
+      <c r="F38" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="52"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7882,7 +7975,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -7911,7 +8004,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -7932,8 +8025,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="63" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -7942,10 +8035,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="57">
+      <c r="E45" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="56">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -7953,22 +8046,22 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
@@ -7976,15 +8069,15 @@
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="63" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -7993,74 +8086,74 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="60" t="s">
+      <c r="E48" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="52"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="51" t="s">
+      <c r="E51" s="61">
+        <v>0</v>
+      </c>
+      <c r="F51" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8088,7 +8181,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -8117,7 +8210,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -8138,8 +8231,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="63" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -8148,10 +8241,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="57">
+      <c r="E58" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="56">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -8159,22 +8252,22 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="48"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="64"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
@@ -8182,15 +8275,15 @@
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
-      <c r="B61" s="63" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -8199,78 +8292,129 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="60" t="s">
+      <c r="E61" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="65"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="52"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="51">
-        <v>0</v>
-      </c>
-      <c r="F64" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="51" t="s">
+      <c r="E64" s="61">
+        <v>0</v>
+      </c>
+      <c r="F64" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="52"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="A56:A63"/>
@@ -8287,57 +8431,6 @@
     <mergeCell ref="F45:F47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8348,7 +8441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08995C9B-CBA6-584B-BBF1-08ADB4BFAD5C}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -8365,22 +8458,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8412,7 +8505,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -8441,7 +8534,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -8462,8 +8555,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8472,10 +8565,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="57">
+      <c r="E6" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="56">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -8483,22 +8576,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="64"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -8506,15 +8599,15 @@
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -8523,73 +8616,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="60" t="s">
+      <c r="E9" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="51">
-        <v>0</v>
-      </c>
-      <c r="F12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="51" t="s">
+      <c r="E12" s="61">
+        <v>0</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8616,7 +8709,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -8645,7 +8738,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -8666,8 +8759,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -8676,10 +8769,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="57">
+      <c r="E19" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="56">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -8687,22 +8780,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="64"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
@@ -8710,15 +8803,15 @@
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="63" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -8727,73 +8820,73 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="60" t="s">
+      <c r="E22" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="52"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="51">
-        <v>0</v>
-      </c>
-      <c r="F25" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="51" t="s">
+      <c r="E25" s="61">
+        <v>0</v>
+      </c>
+      <c r="F25" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="52"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -8820,7 +8913,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -8849,7 +8942,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -8870,8 +8963,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -8880,10 +8973,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="57">
+      <c r="E32" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="56">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -8891,22 +8984,22 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="64"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
@@ -8914,15 +9007,15 @@
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -8931,73 +9024,73 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="60" t="s">
+      <c r="E35" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="52"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="51">
-        <v>0</v>
-      </c>
-      <c r="F38" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="51" t="s">
+      <c r="E38" s="61">
+        <v>0</v>
+      </c>
+      <c r="F38" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="52"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -9024,7 +9117,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -9053,7 +9146,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -9074,8 +9167,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="63" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -9084,10 +9177,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="57">
+      <c r="E45" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="56">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -9095,22 +9188,22 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
@@ -9118,15 +9211,15 @@
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="63" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -9135,73 +9228,73 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="60" t="s">
+      <c r="E48" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="52"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="51" t="s">
+      <c r="E51" s="61">
+        <v>0</v>
+      </c>
+      <c r="F51" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9228,7 +9321,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="62" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -9257,7 +9350,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -9278,8 +9371,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="63" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -9288,10 +9381,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="57">
+      <c r="E58" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="56">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -9299,22 +9392,22 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="48"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="64"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
@@ -9322,15 +9415,15 @@
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
-      <c r="B61" s="63" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -9339,76 +9432,127 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="60" t="s">
+      <c r="E61" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="65"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="52"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="51">
-        <v>0</v>
-      </c>
-      <c r="F64" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="51" t="s">
+      <c r="E64" s="61">
+        <v>0</v>
+      </c>
+      <c r="F64" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="52"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
     <mergeCell ref="G61:G63"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A56:A63"/>
@@ -9425,57 +9569,6 @@
     <mergeCell ref="F45:F47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Final Result/06XX.xlsx
+++ b/Final Result/06XX.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B4440-69D0-804A-8189-6FA7641CD47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9168D19D-E056-9A45-9C9F-EEE0FC53B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure-only Core Subgraph" sheetId="1" r:id="rId1"/>
-    <sheet name="Feature-Shared" sheetId="2" r:id="rId2"/>
-    <sheet name="Feature-Personal" sheetId="5" r:id="rId3"/>
+    <sheet name="Feature-Personal" sheetId="5" r:id="rId2"/>
+    <sheet name="Feature-Shared" sheetId="2" r:id="rId3"/>
     <sheet name="Structure + Shared Feature" sheetId="3" r:id="rId4"/>
     <sheet name="Structure + Personalized Featur" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="44">
   <si>
     <t>Method</t>
   </si>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD3DA2-AFDD-A94B-906F-D74F5151AC29}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A118" zoomScale="136" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3763,6 +3763,1780 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C3A3C-90F9-3641-9386-0565683637CB}">
+  <dimension ref="A2:J86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="68"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="39">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="J5" s="39">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="39">
+        <v>0.8589</v>
+      </c>
+      <c r="J6" s="39">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0</v>
+      </c>
+      <c r="F8" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="61">
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="35">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="J22" s="39">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="39">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="J23" s="39">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="56">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="56">
+        <v>0</v>
+      </c>
+      <c r="F28" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="56">
+        <v>0</v>
+      </c>
+      <c r="F31" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="61">
+        <v>0</v>
+      </c>
+      <c r="F34" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="35">
+        <v>1</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="39">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="J39" s="39">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="39">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="J40" s="39">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="63"/>
+      <c r="B41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="47"/>
+      <c r="B42" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="56">
+        <v>0</v>
+      </c>
+      <c r="F42" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="47"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="47"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="47"/>
+      <c r="B45" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="56">
+        <v>0</v>
+      </c>
+      <c r="F45" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="47"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="47"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="47"/>
+      <c r="B48" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="56">
+        <v>0</v>
+      </c>
+      <c r="F48" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="47"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="51"/>
+    </row>
+    <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="52"/>
+    </row>
+    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="61">
+        <v>0</v>
+      </c>
+      <c r="F51" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="35">
+        <v>1</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="39">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J56" s="39">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="39">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="J57" s="39">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="63"/>
+      <c r="B58" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="47"/>
+      <c r="B59" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="56">
+        <v>0</v>
+      </c>
+      <c r="F59" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="47"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="47"/>
+      <c r="B62" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="56">
+        <v>0</v>
+      </c>
+      <c r="F62" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="47"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="47"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="56">
+        <v>0</v>
+      </c>
+      <c r="F65" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="51"/>
+    </row>
+    <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="48"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="52"/>
+    </row>
+    <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="61">
+        <v>0</v>
+      </c>
+      <c r="F68" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="35">
+        <v>1</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="39">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="J73" s="39">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="39">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="J74" s="39">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="63"/>
+      <c r="B75" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="47"/>
+      <c r="B76" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="56">
+        <v>0</v>
+      </c>
+      <c r="F76" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="47"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="47"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="47"/>
+      <c r="B79" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="56">
+        <v>0</v>
+      </c>
+      <c r="F79" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="47"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="47"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="47"/>
+      <c r="B82" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="56">
+        <v>0</v>
+      </c>
+      <c r="F82" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="47"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="51"/>
+    </row>
+    <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="48"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="52"/>
+    </row>
+    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="61">
+        <v>0</v>
+      </c>
+      <c r="F85" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="93">
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="A74:A84"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F743D4C-E85F-EF45-ABB1-D1AF09A7D54B}">
   <dimension ref="A2:J86"/>
   <sheetViews>
@@ -5541,1761 +7315,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C3A3C-90F9-3641-9386-0565683637CB}">
-  <dimension ref="A2:J86"/>
-  <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="35">
-        <v>1</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="39">
-        <v>0.35220000000000001</v>
-      </c>
-      <c r="J5" s="39">
-        <v>1.9300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="39">
-        <v>0.8589</v>
-      </c>
-      <c r="J6" s="39">
-        <v>1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="56">
-        <v>0</v>
-      </c>
-      <c r="F8" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="56">
-        <v>0</v>
-      </c>
-      <c r="F11" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="56">
-        <v>0</v>
-      </c>
-      <c r="F14" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="61">
-        <v>0</v>
-      </c>
-      <c r="F17" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="35">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="39">
-        <v>0.28920000000000001</v>
-      </c>
-      <c r="J22" s="39">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="39">
-        <v>0.73580000000000001</v>
-      </c>
-      <c r="J23" s="39">
-        <v>1.5299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="56">
-        <v>0</v>
-      </c>
-      <c r="F25" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="56">
-        <v>0</v>
-      </c>
-      <c r="F28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="56">
-        <v>0</v>
-      </c>
-      <c r="F31" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="51"/>
-    </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="61">
-        <v>0</v>
-      </c>
-      <c r="F34" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="35">
-        <v>1</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="39">
-        <v>0.42280000000000001</v>
-      </c>
-      <c r="J39" s="39">
-        <v>9.2999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="39">
-        <v>0.89239999999999997</v>
-      </c>
-      <c r="J40" s="39">
-        <v>1.03E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="56">
-        <v>0</v>
-      </c>
-      <c r="F42" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="56">
-        <v>0</v>
-      </c>
-      <c r="F45" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="56">
-        <v>0</v>
-      </c>
-      <c r="F48" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="51"/>
-    </row>
-    <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="52"/>
-    </row>
-    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="61">
-        <v>0</v>
-      </c>
-      <c r="F51" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="35">
-        <v>1</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="39">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="J56" s="39">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="39">
-        <v>0.88339999999999996</v>
-      </c>
-      <c r="J57" s="39">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
-      <c r="B58" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="56">
-        <v>0</v>
-      </c>
-      <c r="F59" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="56">
-        <v>0</v>
-      </c>
-      <c r="F62" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="56">
-        <v>0</v>
-      </c>
-      <c r="F65" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="51"/>
-    </row>
-    <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="52"/>
-    </row>
-    <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="61">
-        <v>0</v>
-      </c>
-      <c r="F68" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="35">
-        <v>1</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="39">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="J73" s="39">
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I74" s="39">
-        <v>0.85850000000000004</v>
-      </c>
-      <c r="J74" s="39">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
-      <c r="B75" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="56">
-        <v>0</v>
-      </c>
-      <c r="F76" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="56">
-        <v>0</v>
-      </c>
-      <c r="F79" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="56">
-        <v>0</v>
-      </c>
-      <c r="F82" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="51"/>
-    </row>
-    <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="52"/>
-    </row>
-    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="61">
-        <v>0</v>
-      </c>
-      <c r="F85" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A6:A16"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="A74:A84"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A5C5F8-3311-604C-9DB4-AD5D59E03971}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="H56" sqref="H56:I56"/>
     </sheetView>
   </sheetViews>

--- a/Final Result/06XX.xlsx
+++ b/Final Result/06XX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9168D19D-E056-9A45-9C9F-EEE0FC53B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DD6A1-C700-4E4F-9125-059DFF99DCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
   </bookViews>
@@ -241,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -546,12 +546,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,6 +795,27 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD3DA2-AFDD-A94B-906F-D74F5151AC29}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
@@ -3766,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C3A3C-90F9-3641-9386-0565683637CB}">
   <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3845,7 +3903,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="80" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="25" t="s">
         <v>43</v>
       </c>
@@ -3867,18 +3927,16 @@
       <c r="H5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="72">
         <v>0.35220000000000001</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="72">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3899,16 +3957,16 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="71">
         <v>0.8589</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="71">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -3931,8 +3989,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="67" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3955,8 +4013,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
@@ -3973,8 +4031,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3991,8 +4049,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="67" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4015,8 +4073,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
@@ -4031,8 +4089,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
@@ -4047,8 +4105,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="67" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -4071,8 +4129,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
@@ -4084,55 +4142,55 @@
       <c r="G15" s="42"/>
       <c r="H15" s="51"/>
     </row>
-    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="65" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="81"/>
+      <c r="B17" s="67" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="61">
-        <v>0</v>
-      </c>
-      <c r="F17" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="61" t="s">
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="15" t="s">
+      <c r="H17" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="82"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4170,7 +4228,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="80" t="s">
+        <v>23</v>
+      </c>
       <c r="B22" s="25" t="s">
         <v>43</v>
       </c>
@@ -4192,17 +4252,15 @@
       <c r="H22" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="72">
         <v>0.28920000000000001</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="72">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
-        <v>23</v>
-      </c>
+    <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="81"/>
       <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
@@ -4224,15 +4282,15 @@
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="71">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="71">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -4256,7 +4314,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="58" t="s">
         <v>11</v>
       </c>
@@ -4280,7 +4338,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="44"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
@@ -4298,7 +4356,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="64"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
@@ -4316,7 +4374,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="58" t="s">
         <v>11</v>
       </c>
@@ -4340,7 +4398,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="44"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
@@ -4356,7 +4414,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="64"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
@@ -4372,7 +4430,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="58" t="s">
         <v>11</v>
       </c>
@@ -4396,7 +4454,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="44"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
@@ -4409,55 +4467,55 @@
       <c r="G32" s="42"/>
       <c r="H32" s="51"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="65" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="81"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="81"/>
+      <c r="B34" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="61">
-        <v>0</v>
-      </c>
-      <c r="F34" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="61" t="s">
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="53">
+        <v>0</v>
+      </c>
+      <c r="F34" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="15" t="s">
+      <c r="H34" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="24" t="s">
+      <c r="G35" s="54"/>
+      <c r="H35" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4517,15 +4575,15 @@
       <c r="H39" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="72">
         <v>0.42280000000000001</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="72">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="80" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -4549,15 +4607,15 @@
       <c r="H40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="71">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="71">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -4581,7 +4639,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="58" t="s">
         <v>11</v>
       </c>
@@ -4605,7 +4663,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="44"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
@@ -4623,7 +4681,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="64"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
@@ -4641,7 +4699,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
@@ -4665,7 +4723,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
@@ -4681,7 +4739,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="64"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
@@ -4697,7 +4755,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="58" t="s">
         <v>11</v>
       </c>
@@ -4721,7 +4779,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="44"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
@@ -4734,55 +4792,55 @@
       <c r="G49" s="42"/>
       <c r="H49" s="51"/>
     </row>
-    <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="52"/>
-    </row>
-    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="65" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="81"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="51"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="81"/>
+      <c r="B51" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="61">
-        <v>0</v>
-      </c>
-      <c r="F51" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="61" t="s">
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="53">
+        <v>0</v>
+      </c>
+      <c r="F51" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="15" t="s">
+      <c r="H51" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="82"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="24" t="s">
+      <c r="G52" s="54"/>
+      <c r="H52" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4842,15 +4900,15 @@
       <c r="H56" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="39">
+      <c r="I56" s="72">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J56" s="39">
+      <c r="J56" s="72">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="s">
+    <row r="57" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="80" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -4874,15 +4932,15 @@
       <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="39">
+      <c r="I57" s="71">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="71">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="81"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -4906,7 +4964,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+      <c r="A59" s="81"/>
       <c r="B59" s="58" t="s">
         <v>11</v>
       </c>
@@ -4930,7 +4988,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
+      <c r="A60" s="81"/>
       <c r="B60" s="44"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
@@ -4948,7 +5006,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+      <c r="A61" s="81"/>
       <c r="B61" s="64"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
@@ -4966,7 +5024,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
+      <c r="A62" s="81"/>
       <c r="B62" s="58" t="s">
         <v>11</v>
       </c>
@@ -4990,7 +5048,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
+      <c r="A63" s="81"/>
       <c r="B63" s="44"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
@@ -5006,7 +5064,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
+      <c r="A64" s="81"/>
       <c r="B64" s="64"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
@@ -5022,7 +5080,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="81"/>
       <c r="B65" s="58" t="s">
         <v>11</v>
       </c>
@@ -5046,7 +5104,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+      <c r="A66" s="81"/>
       <c r="B66" s="44"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
@@ -5059,55 +5117,55 @@
       <c r="G66" s="42"/>
       <c r="H66" s="51"/>
     </row>
-    <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="52"/>
-    </row>
-    <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="65" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="81"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="51"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="81"/>
+      <c r="B68" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="61">
-        <v>0</v>
-      </c>
-      <c r="F68" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="61" t="s">
+      <c r="D68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="53">
+        <v>0</v>
+      </c>
+      <c r="F68" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="15" t="s">
+      <c r="H68" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="82"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="54"/>
       <c r="F69" s="54"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="24" t="s">
+      <c r="G69" s="54"/>
+      <c r="H69" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5167,15 +5225,15 @@
       <c r="H73" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I73" s="72">
         <v>0.73809999999999998</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="72">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="62" t="s">
+    <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -5199,15 +5257,15 @@
       <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="39">
+      <c r="I74" s="71">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="71">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="81"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -5231,7 +5289,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
+      <c r="A76" s="81"/>
       <c r="B76" s="58" t="s">
         <v>11</v>
       </c>
@@ -5255,7 +5313,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
+      <c r="A77" s="81"/>
       <c r="B77" s="44"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
@@ -5273,7 +5331,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
+      <c r="A78" s="81"/>
       <c r="B78" s="64"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
@@ -5291,7 +5349,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
+      <c r="A79" s="81"/>
       <c r="B79" s="58" t="s">
         <v>11</v>
       </c>
@@ -5315,7 +5373,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
+      <c r="A80" s="81"/>
       <c r="B80" s="44"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
@@ -5331,7 +5389,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
+      <c r="A81" s="81"/>
       <c r="B81" s="64"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
@@ -5347,7 +5405,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
+      <c r="A82" s="81"/>
       <c r="B82" s="58" t="s">
         <v>11</v>
       </c>
@@ -5371,7 +5429,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
+      <c r="A83" s="81"/>
       <c r="B83" s="44"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
@@ -5384,60 +5442,65 @@
       <c r="G83" s="42"/>
       <c r="H83" s="51"/>
     </row>
-    <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="52"/>
-    </row>
-    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="65" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="81"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="51"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="81"/>
+      <c r="B85" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="61">
-        <v>0</v>
-      </c>
-      <c r="F85" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="61" t="s">
+      <c r="D85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="53">
+        <v>0</v>
+      </c>
+      <c r="F85" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="15" t="s">
+      <c r="H85" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="82"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="54"/>
       <c r="F86" s="54"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="24" t="s">
+      <c r="G86" s="54"/>
+      <c r="H86" s="23" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="A74:A86"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="A5:A18"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="E85:E86"/>
@@ -5465,7 +5528,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A6:A16"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -5480,7 +5542,6 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="A23:A33"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="F25:F27"/>
@@ -5493,7 +5554,6 @@
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="H48:H50"/>
-    <mergeCell ref="A40:A50"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="F42:F44"/>
@@ -5509,7 +5569,6 @@
     <mergeCell ref="F65:F67"/>
     <mergeCell ref="G65:G67"/>
     <mergeCell ref="H65:H67"/>
-    <mergeCell ref="A57:A67"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="F59:F61"/>
@@ -5519,7 +5578,6 @@
     <mergeCell ref="G62:G64"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="H82:H84"/>
-    <mergeCell ref="A74:A84"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="E76:E78"/>
     <mergeCell ref="F76:F78"/>

--- a/Final Result/06XX.xlsx
+++ b/Final Result/06XX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DD6A1-C700-4E4F-9125-059DFF99DCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB22B7EA-4D96-4941-B7F4-90CC15F95151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure-only Core Subgraph" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,10 +694,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,9 +777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1146,34 +1139,34 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="39"/>
-    <col min="10" max="10" width="13.83203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="37"/>
+    <col min="10" max="10" width="13.83203125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="49" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="49"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
@@ -1200,15 +1193,15 @@
       <c r="H3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -1230,15 +1223,15 @@
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="69">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="69">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1260,15 +1253,15 @@
       <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="68">
         <v>0.8589</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="68">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -1290,16 +1283,16 @@
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="71">
         <v>0.71740000000000004</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="71">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1308,10 +1301,10 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="E7" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="43">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1320,64 +1313,64 @@
       <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="37">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="37">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="37">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="37">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="37">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1386,71 +1379,71 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42" t="s">
+      <c r="E10" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="37">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="37">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="37">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="37">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="37">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="37">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
@@ -1472,15 +1465,15 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="70">
         <v>0.73519999999999996</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="70">
         <v>2.53E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -1502,16 +1495,16 @@
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="67">
         <v>0.80300000000000005</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="67">
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1520,10 +1513,10 @@
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="43">
         <v>0.3</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="43">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1532,64 +1525,64 @@
       <c r="H15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="37">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="37">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="37">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="37">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="37">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="37">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1598,71 +1591,71 @@
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="43">
         <v>0.3</v>
       </c>
-      <c r="F18" s="45">
-        <v>0</v>
-      </c>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="43">
+        <v>0</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="37">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="37">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="37">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="37">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="37">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="37">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
@@ -1684,10 +1677,10 @@
       <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="70">
         <v>0.73519999999999996</v>
       </c>
-      <c r="J21" s="73">
+      <c r="J21" s="70">
         <v>2.53E-2</v>
       </c>
     </row>
@@ -1717,15 +1710,15 @@
       <c r="H24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -1747,15 +1740,15 @@
       <c r="H25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="69">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="69">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1775,15 +1768,15 @@
       <c r="H26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="68">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="68">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
@@ -1803,16 +1796,16 @@
       <c r="H27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="74">
+      <c r="I27" s="71">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J27" s="74">
+      <c r="J27" s="71">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1821,10 +1814,10 @@
       <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="45">
+      <c r="E28" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="43">
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1833,64 +1826,64 @@
       <c r="H28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="37">
         <v>0.6946</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="39">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="37">
         <v>0.6946</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="39">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="37">
         <v>0.6946</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="39">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1899,71 +1892,71 @@
       <c r="D31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="45">
-        <v>0</v>
-      </c>
-      <c r="G31" s="42" t="s">
+      <c r="E31" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="43">
+        <v>0</v>
+      </c>
+      <c r="G31" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="37">
         <v>0.6895</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="37">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="37">
         <v>0.6895</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="37">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="37">
         <v>0.6895</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="37">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1985,15 +1978,15 @@
       <c r="H34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="37">
         <v>0.68130000000000002</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="37">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
@@ -2013,16 +2006,16 @@
       <c r="H35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="37">
         <v>0.69040000000000001</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="37">
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="44" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2031,10 +2024,10 @@
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="43">
         <v>0.3</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="43">
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2043,64 +2036,64 @@
       <c r="H36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="37">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="37">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="37">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="37">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="37">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="37">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="44" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2109,71 +2102,71 @@
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="43">
         <v>0.3</v>
       </c>
-      <c r="F39" s="45">
-        <v>0</v>
-      </c>
-      <c r="G39" s="42" t="s">
+      <c r="F39" s="43">
+        <v>0</v>
+      </c>
+      <c r="G39" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="37">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="37">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="37">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="37">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="37">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="37">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -2195,10 +2188,10 @@
       <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="73">
+      <c r="I42" s="70">
         <v>0.68130000000000002</v>
       </c>
-      <c r="J42" s="73">
+      <c r="J42" s="70">
         <v>2.12E-2</v>
       </c>
     </row>
@@ -2228,15 +2221,15 @@
       <c r="H45" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="J45" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -2258,15 +2251,15 @@
       <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="72">
+      <c r="I46" s="69">
         <v>0.79139999999999999</v>
       </c>
-      <c r="J46" s="72">
+      <c r="J46" s="69">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
@@ -2286,15 +2279,15 @@
       <c r="H47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="71">
+      <c r="I47" s="68">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J47" s="71">
+      <c r="J47" s="68">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2314,16 +2307,16 @@
       <c r="H48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I48" s="37">
         <v>0.83989999999999998</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="37">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="44" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2332,10 +2325,10 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="45">
+      <c r="E49" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="43">
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -2344,64 +2337,64 @@
       <c r="H49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="39">
+      <c r="I49" s="37">
         <v>0.83799999999999997</v>
       </c>
-      <c r="J49" s="39">
+      <c r="J49" s="37">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="39">
+      <c r="I50" s="37">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="37">
         <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="39">
+      <c r="I51" s="37">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J51" s="39">
+      <c r="J51" s="37">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
-      <c r="B52" s="44" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2410,71 +2403,71 @@
       <c r="D52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F52" s="45">
-        <v>0</v>
-      </c>
-      <c r="G52" s="42" t="s">
+      <c r="E52" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="43">
+        <v>0</v>
+      </c>
+      <c r="G52" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="39">
+      <c r="I52" s="37">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J52" s="39">
+      <c r="J52" s="37">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="42"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="39">
+      <c r="I53" s="37">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="37">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="39">
+      <c r="I54" s="37">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J54" s="39">
+      <c r="J54" s="37">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="9" t="s">
         <v>42</v>
       </c>
@@ -2496,15 +2489,15 @@
       <c r="H55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="75">
+      <c r="I55" s="72">
         <v>0.81989999999999996</v>
       </c>
-      <c r="J55" s="75">
+      <c r="J55" s="72">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="10" t="s">
         <v>7</v>
       </c>
@@ -2524,16 +2517,16 @@
       <c r="H56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="39">
+      <c r="I56" s="37">
         <v>0.86460000000000004</v>
       </c>
-      <c r="J56" s="39">
+      <c r="J56" s="37">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="44" t="s">
+      <c r="A57" s="45"/>
+      <c r="B57" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2542,10 +2535,10 @@
       <c r="D57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="43">
         <v>0.3</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="43">
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2554,64 +2547,64 @@
       <c r="H57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="39">
+      <c r="I57" s="37">
         <v>0.8599</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="37">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
       <c r="G58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="39">
+      <c r="I58" s="37">
         <v>0.86019999999999996</v>
       </c>
-      <c r="J58" s="39">
+      <c r="J58" s="37">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="39">
+      <c r="I59" s="37">
         <v>0.8599</v>
       </c>
-      <c r="J59" s="39">
+      <c r="J59" s="37">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2620,71 +2613,71 @@
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="43">
         <v>0.3</v>
       </c>
-      <c r="F60" s="45">
-        <v>0</v>
-      </c>
-      <c r="G60" s="42" t="s">
+      <c r="F60" s="43">
+        <v>0</v>
+      </c>
+      <c r="G60" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="39">
+      <c r="I60" s="37">
         <v>0.86450000000000005</v>
       </c>
-      <c r="J60" s="39">
+      <c r="J60" s="37">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="42"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="40"/>
       <c r="H61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="39">
+      <c r="I61" s="37">
         <v>0.86229999999999996</v>
       </c>
-      <c r="J61" s="39">
+      <c r="J61" s="37">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="40"/>
       <c r="H62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="39">
+      <c r="I62" s="37">
         <v>0.86019999999999996</v>
       </c>
-      <c r="J62" s="39">
+      <c r="J62" s="37">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
@@ -2706,10 +2699,10 @@
       <c r="H63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="39">
+      <c r="I63" s="37">
         <v>0.83209999999999995</v>
       </c>
-      <c r="J63" s="39">
+      <c r="J63" s="37">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
@@ -2739,15 +2732,15 @@
       <c r="H66" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="40" t="s">
+      <c r="I66" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="40" t="s">
+      <c r="J66" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="31" t="s">
@@ -2769,15 +2762,15 @@
       <c r="H67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="72">
+      <c r="I67" s="69">
         <v>0.75160000000000005</v>
       </c>
-      <c r="J67" s="72">
+      <c r="J67" s="69">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="8" t="s">
         <v>6</v>
       </c>
@@ -2797,15 +2790,15 @@
       <c r="H68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="71">
+      <c r="I68" s="68">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J68" s="71">
+      <c r="J68" s="68">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
@@ -2825,16 +2818,16 @@
       <c r="H69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="75">
+      <c r="I69" s="72">
         <v>0.74629999999999996</v>
       </c>
-      <c r="J69" s="75">
+      <c r="J69" s="72">
         <v>1.21E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="44" t="s">
+      <c r="A70" s="45"/>
+      <c r="B70" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -2843,10 +2836,10 @@
       <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F70" s="45">
+      <c r="E70" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="43">
         <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -2855,64 +2848,64 @@
       <c r="H70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="39">
+      <c r="I70" s="37">
         <v>0.754</v>
       </c>
-      <c r="J70" s="39">
+      <c r="J70" s="37">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="44"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="39">
+      <c r="I71" s="37">
         <v>0.75490000000000002</v>
       </c>
-      <c r="J71" s="39">
+      <c r="J71" s="37">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="39">
+      <c r="I72" s="37">
         <v>0.754</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="37">
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="44" t="s">
+      <c r="A73" s="45"/>
+      <c r="B73" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -2921,71 +2914,71 @@
       <c r="D73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F73" s="45">
-        <v>0</v>
-      </c>
-      <c r="G73" s="42" t="s">
+      <c r="E73" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="43">
+        <v>0</v>
+      </c>
+      <c r="G73" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I73" s="37">
         <v>0.75570000000000004</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="37">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="44"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="42"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="40"/>
       <c r="H74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="39">
+      <c r="I74" s="37">
         <v>0.75380000000000003</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="37">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="44"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="42"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="40"/>
       <c r="H75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="39">
+      <c r="I75" s="37">
         <v>0.75570000000000004</v>
       </c>
-      <c r="J75" s="39">
+      <c r="J75" s="37">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
@@ -3007,15 +3000,15 @@
       <c r="H76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="39">
+      <c r="I76" s="37">
         <v>0.78220000000000001</v>
       </c>
-      <c r="J76" s="39">
+      <c r="J76" s="37">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="10" t="s">
         <v>7</v>
       </c>
@@ -3035,16 +3028,16 @@
       <c r="H77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I77" s="39">
+      <c r="I77" s="37">
         <v>0.81540000000000001</v>
       </c>
-      <c r="J77" s="39">
+      <c r="J77" s="37">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="44" t="s">
+      <c r="A78" s="45"/>
+      <c r="B78" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -3053,10 +3046,10 @@
       <c r="D78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="43">
         <v>0.3</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="43">
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -3065,64 +3058,64 @@
       <c r="H78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="39">
+      <c r="I78" s="37">
         <v>0.81669999999999998</v>
       </c>
-      <c r="J78" s="39">
+      <c r="J78" s="37">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="44"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
       <c r="G79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="39">
+      <c r="I79" s="37">
         <v>0.81659999999999999</v>
       </c>
-      <c r="J79" s="39">
+      <c r="J79" s="37">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
       <c r="G80" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="39">
+      <c r="I80" s="37">
         <v>0.81720000000000004</v>
       </c>
-      <c r="J80" s="39">
+      <c r="J80" s="37">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="44" t="s">
+      <c r="A81" s="45"/>
+      <c r="B81" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -3131,71 +3124,71 @@
       <c r="D81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="43">
         <v>0.3</v>
       </c>
-      <c r="F81" s="45">
-        <v>0</v>
-      </c>
-      <c r="G81" s="42" t="s">
+      <c r="F81" s="43">
+        <v>0</v>
+      </c>
+      <c r="G81" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="39">
+      <c r="I81" s="37">
         <v>0.81679999999999997</v>
       </c>
-      <c r="J81" s="39">
+      <c r="J81" s="37">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="44"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="42"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="40"/>
       <c r="H82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="39">
+      <c r="I82" s="37">
         <v>0.81710000000000005</v>
       </c>
-      <c r="J82" s="39">
+      <c r="J82" s="37">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="40"/>
       <c r="H83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="39">
+      <c r="I83" s="37">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J83" s="39">
+      <c r="J83" s="37">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="8" t="s">
         <v>42</v>
       </c>
@@ -3217,10 +3210,10 @@
       <c r="H84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="39">
+      <c r="I84" s="37">
         <v>0.78259999999999996</v>
       </c>
-      <c r="J84" s="39">
+      <c r="J84" s="37">
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
@@ -3250,15 +3243,15 @@
       <c r="H87" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="I87" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J87" s="40" t="s">
+      <c r="J87" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -3280,15 +3273,15 @@
       <c r="H88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="72">
+      <c r="I88" s="69">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J88" s="72">
+      <c r="J88" s="69">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="8" t="s">
         <v>6</v>
       </c>
@@ -3308,15 +3301,15 @@
       <c r="H89" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="71">
+      <c r="I89" s="68">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J89" s="71">
+      <c r="J89" s="68">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="10" t="s">
         <v>7</v>
       </c>
@@ -3336,16 +3329,16 @@
       <c r="H90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="39">
+      <c r="I90" s="37">
         <v>0.84760000000000002</v>
       </c>
-      <c r="J90" s="39">
+      <c r="J90" s="37">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="44" t="s">
+      <c r="A91" s="45"/>
+      <c r="B91" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -3354,10 +3347,10 @@
       <c r="D91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F91" s="45">
+      <c r="E91" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F91" s="43">
         <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -3366,64 +3359,64 @@
       <c r="H91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="39">
+      <c r="I91" s="37">
         <v>0.85150000000000003</v>
       </c>
-      <c r="J91" s="39">
+      <c r="J91" s="37">
         <v>5.3E-3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="39">
+      <c r="I92" s="37">
         <v>0.85029999999999994</v>
       </c>
-      <c r="J92" s="39">
+      <c r="J92" s="37">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="44"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
       <c r="G93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I93" s="39">
+      <c r="I93" s="37">
         <v>0.85140000000000005</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="37">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="44" t="s">
+      <c r="A94" s="45"/>
+      <c r="B94" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -3432,71 +3425,71 @@
       <c r="D94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="F94" s="45">
-        <v>0</v>
-      </c>
-      <c r="G94" s="42" t="s">
+      <c r="E94" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F94" s="43">
+        <v>0</v>
+      </c>
+      <c r="G94" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="39">
+      <c r="I94" s="37">
         <v>0.85470000000000002</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="37">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
-      <c r="B95" s="44"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="42"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="40"/>
       <c r="H95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="39">
+      <c r="I95" s="37">
         <v>0.85470000000000002</v>
       </c>
-      <c r="J95" s="39">
+      <c r="J95" s="37">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="42"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="40"/>
       <c r="H96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I96" s="39">
+      <c r="I96" s="37">
         <v>0.85409999999999997</v>
       </c>
-      <c r="J96" s="39">
+      <c r="J96" s="37">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
+      <c r="A97" s="45"/>
       <c r="B97" s="8" t="s">
         <v>42</v>
       </c>
@@ -3518,15 +3511,15 @@
       <c r="H97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="39">
+      <c r="I97" s="37">
         <v>0.85340000000000005</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J97" s="37">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
+      <c r="A98" s="45"/>
       <c r="B98" s="10" t="s">
         <v>7</v>
       </c>
@@ -3546,16 +3539,16 @@
       <c r="H98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I98" s="39">
+      <c r="I98" s="37">
         <v>0.85209999999999997</v>
       </c>
-      <c r="J98" s="39">
+      <c r="J98" s="37">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
-      <c r="B99" s="44" t="s">
+      <c r="A99" s="45"/>
+      <c r="B99" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -3564,10 +3557,10 @@
       <c r="D99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="45">
+      <c r="E99" s="43">
         <v>0.3</v>
       </c>
-      <c r="F99" s="45">
+      <c r="F99" s="43">
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -3576,64 +3569,64 @@
       <c r="H99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I99" s="39">
+      <c r="I99" s="37">
         <v>0.84240000000000004</v>
       </c>
-      <c r="J99" s="39">
+      <c r="J99" s="37">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
-      <c r="B100" s="44"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
       <c r="G100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="39">
+      <c r="I100" s="37">
         <v>0.84250000000000003</v>
       </c>
-      <c r="J100" s="39">
+      <c r="J100" s="37">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="47"/>
-      <c r="B101" s="44"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
       <c r="G101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="39">
+      <c r="I101" s="37">
         <v>0.84240000000000004</v>
       </c>
-      <c r="J101" s="39">
+      <c r="J101" s="37">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
-      <c r="B102" s="44" t="s">
+      <c r="A102" s="45"/>
+      <c r="B102" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -3642,71 +3635,71 @@
       <c r="D102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="45">
+      <c r="E102" s="43">
         <v>0.3</v>
       </c>
-      <c r="F102" s="45">
-        <v>0</v>
-      </c>
-      <c r="G102" s="42" t="s">
+      <c r="F102" s="43">
+        <v>0</v>
+      </c>
+      <c r="G102" s="40" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="39">
+      <c r="I102" s="37">
         <v>0.84250000000000003</v>
       </c>
-      <c r="J102" s="39">
+      <c r="J102" s="37">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
-      <c r="B103" s="44"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="42"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="40"/>
       <c r="H103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I103" s="39">
+      <c r="I103" s="37">
         <v>0.8427</v>
       </c>
-      <c r="J103" s="39">
+      <c r="J103" s="37">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="47"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="42"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="40"/>
       <c r="H104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I104" s="39">
+      <c r="I104" s="37">
         <v>0.84389999999999998</v>
       </c>
-      <c r="J104" s="39">
+      <c r="J104" s="37">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="8" t="s">
         <v>42</v>
       </c>
@@ -3728,10 +3721,10 @@
       <c r="H105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="39">
+      <c r="I105" s="37">
         <v>0.8528</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="37">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
@@ -3824,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C3A3C-90F9-3641-9386-0565683637CB}">
   <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3843,18 +3836,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -3865,10 +3858,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="68"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -3903,7 +3896,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -3927,15 +3920,15 @@
       <c r="H5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="69">
         <v>0.35220000000000001</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="69">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
@@ -3957,15 +3950,15 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="68">
         <v>0.8589</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="68">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
@@ -3987,10 +3980,16 @@
       <c r="H7" s="20" t="s">
         <v>5</v>
       </c>
+      <c r="I7" s="37">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="J7" s="37">
+        <v>2.8400000000000002E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="81"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3999,10 +3998,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="56">
-        <v>0</v>
-      </c>
-      <c r="F8" s="56">
+      <c r="E8" s="54">
+        <v>0</v>
+      </c>
+      <c r="F8" s="54">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -4011,46 +4010,64 @@
       <c r="H8" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I8" s="37">
+        <v>0.65890000000000004</v>
+      </c>
+      <c r="J8" s="37">
+        <v>6.3600000000000004E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I9" s="37">
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="J9" s="37">
+        <v>4.5400000000000003E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I10" s="72">
+        <v>0.6341</v>
+      </c>
+      <c r="J10" s="72">
+        <v>6.3100000000000003E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="81"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4059,54 +4076,72 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="56">
-        <v>0</v>
-      </c>
-      <c r="F11" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="53" t="s">
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I11" s="37">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="J11" s="37">
+        <v>2.9499999999999998E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="81"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I12" s="37">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="J12" s="37">
+        <v>2.47E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I13" s="37">
+        <v>0.69589999999999996</v>
+      </c>
+      <c r="J13" s="37">
+        <v>2.46E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="81"/>
-      <c r="B14" s="67" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -4115,83 +4150,113 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="56">
-        <v>0</v>
-      </c>
-      <c r="F14" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="53" t="s">
+      <c r="E14" s="54">
+        <v>0</v>
+      </c>
+      <c r="F14" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="48" t="s">
         <v>8</v>
       </c>
+      <c r="I14" s="37">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="J14" s="37">
+        <v>2.86E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="81"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="51"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="37">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="J15" s="37">
+        <v>2.76E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="76" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="51"/>
+      <c r="D16" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="37">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="J16" s="37">
+        <v>2.64E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="53">
-        <v>0</v>
-      </c>
-      <c r="F17" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="53" t="s">
+      <c r="E17" s="51">
+        <v>0</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I17" s="37">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="J17" s="37">
+        <v>2.6800000000000001E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0.7722</v>
+      </c>
+      <c r="J18" s="37">
+        <v>2.9600000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4228,7 +4293,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -4252,15 +4317,15 @@
       <c r="H22" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="69">
         <v>0.28920000000000001</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="69">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="81"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
@@ -4282,15 +4347,15 @@
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="68">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="68">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -4312,10 +4377,16 @@
       <c r="H24" s="20" t="s">
         <v>5</v>
       </c>
+      <c r="I24" s="37">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="J24" s="37">
+        <v>2.3900000000000001E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -4324,10 +4395,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="56">
-        <v>0</v>
-      </c>
-      <c r="F25" s="56">
+      <c r="E25" s="54">
+        <v>0</v>
+      </c>
+      <c r="F25" s="54">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4336,46 +4407,64 @@
       <c r="H25" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I25" s="72">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="J25" s="72">
+        <v>2.7900000000000001E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="81"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I26" s="37">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="J26" s="37">
+        <v>3.6299999999999999E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="81"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I27" s="37">
+        <v>0.5464</v>
+      </c>
+      <c r="J27" s="37">
+        <v>2.9399999999999999E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="78"/>
+      <c r="B28" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4384,54 +4473,72 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="56">
-        <v>0</v>
-      </c>
-      <c r="F28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="53" t="s">
+      <c r="E28" s="54">
+        <v>0</v>
+      </c>
+      <c r="F28" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I28" s="37">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="J28" s="37">
+        <v>2.1499999999999998E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I29" s="37">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="J29" s="37">
+        <v>2.18E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I30" s="37">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="J30" s="37">
+        <v>2.2499999999999999E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="81"/>
-      <c r="B31" s="58" t="s">
+      <c r="A31" s="78"/>
+      <c r="B31" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4440,83 +4547,113 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="56">
-        <v>0</v>
-      </c>
-      <c r="F31" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="53" t="s">
+      <c r="E31" s="54">
+        <v>0</v>
+      </c>
+      <c r="F31" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="48" t="s">
         <v>8</v>
       </c>
+      <c r="I31" s="37">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="J31" s="37">
+        <v>2.1700000000000001E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="81"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="51"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="37">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="J32" s="37">
+        <v>2.12E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="51"/>
+      <c r="D33" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="37">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="J33" s="37">
+        <v>2.2599999999999999E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="78"/>
+      <c r="B34" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="53">
-        <v>0</v>
-      </c>
-      <c r="F34" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="53" t="s">
+      <c r="E34" s="51">
+        <v>0</v>
+      </c>
+      <c r="F34" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I34" s="37">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="J34" s="37">
+        <v>2.12E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="I35" s="37">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J35" s="37">
+        <v>2.46E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4575,15 +4712,15 @@
       <c r="H39" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="72">
+      <c r="I39" s="69">
         <v>0.42280000000000001</v>
       </c>
-      <c r="J39" s="72">
+      <c r="J39" s="69">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -4607,15 +4744,15 @@
       <c r="H40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="68">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="68">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -4637,10 +4774,16 @@
       <c r="H41" s="20" t="s">
         <v>5</v>
       </c>
+      <c r="I41" s="37">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="J41" s="37">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="78"/>
+      <c r="B42" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -4649,10 +4792,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="56">
-        <v>0</v>
-      </c>
-      <c r="F42" s="56">
+      <c r="E42" s="54">
+        <v>0</v>
+      </c>
+      <c r="F42" s="54">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4661,46 +4804,64 @@
       <c r="H42" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I42" s="37">
+        <v>0.60570000000000002</v>
+      </c>
+      <c r="J42" s="37">
+        <v>1.4800000000000001E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I43" s="37">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J43" s="37">
+        <v>1.32E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="81"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I44" s="72">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="J44" s="72">
+        <v>1.11E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="78"/>
+      <c r="B45" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -4709,54 +4870,72 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="56">
-        <v>0</v>
-      </c>
-      <c r="F45" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="53" t="s">
+      <c r="E45" s="54">
+        <v>0</v>
+      </c>
+      <c r="F45" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I45" s="37">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="J45" s="37">
+        <v>9.7000000000000003E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I46" s="37">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="J46" s="37">
+        <v>1.5299999999999999E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="81"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I47" s="37">
+        <v>0.6996</v>
+      </c>
+      <c r="J47" s="37">
+        <v>1.14E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="78"/>
+      <c r="B48" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -4765,65 +4944,83 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="56">
-        <v>0</v>
-      </c>
-      <c r="F48" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="53" t="s">
+      <c r="E48" s="54">
+        <v>0</v>
+      </c>
+      <c r="F48" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="48" t="s">
         <v>8</v>
       </c>
+      <c r="I48" s="37">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="J48" s="37">
+        <v>1.14E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="81"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="51"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="37">
+        <v>0.71540000000000004</v>
+      </c>
+      <c r="J49" s="37">
+        <v>1.0500000000000001E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="76" t="s">
+      <c r="A50" s="78"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="51"/>
+      <c r="D50" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="37">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="J50" s="37">
+        <v>1.3100000000000001E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="81"/>
-      <c r="B51" s="58" t="s">
+      <c r="A51" s="78"/>
+      <c r="B51" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="53">
-        <v>0</v>
-      </c>
-      <c r="F51" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="53" t="s">
+      <c r="E51" s="51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="21" t="s">
@@ -4831,17 +5028,23 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="82"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="79"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
       <c r="H52" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="I52" s="37">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="J52" s="37">
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4900,15 +5103,15 @@
       <c r="H56" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="72">
+      <c r="I56" s="69">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J56" s="72">
+      <c r="J56" s="69">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="77" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -4932,15 +5135,15 @@
       <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="71">
+      <c r="I57" s="68">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J57" s="71">
+      <c r="J57" s="68">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="81"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -4962,10 +5165,16 @@
       <c r="H58" s="20" t="s">
         <v>5</v>
       </c>
+      <c r="I58" s="37">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="J58" s="37">
+        <v>1.11E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="81"/>
-      <c r="B59" s="58" t="s">
+      <c r="A59" s="78"/>
+      <c r="B59" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -4974,10 +5183,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="56">
-        <v>0</v>
-      </c>
-      <c r="F59" s="56">
+      <c r="E59" s="54">
+        <v>0</v>
+      </c>
+      <c r="F59" s="54">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -4986,46 +5195,64 @@
       <c r="H59" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I59" s="37">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="J59" s="37">
+        <v>8.8000000000000005E-3</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I60" s="37">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="J60" s="37">
+        <v>7.9000000000000008E-3</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I61" s="72">
+        <v>0.2482</v>
+      </c>
+      <c r="J61" s="72">
+        <v>7.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="81"/>
-      <c r="B62" s="58" t="s">
+      <c r="A62" s="78"/>
+      <c r="B62" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -5034,54 +5261,72 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="56">
-        <v>0</v>
-      </c>
-      <c r="F62" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="53" t="s">
+      <c r="E62" s="54">
+        <v>0</v>
+      </c>
+      <c r="F62" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I62" s="37">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="J62" s="37">
+        <v>1.2500000000000001E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="81"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I63" s="37">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="J63" s="37">
+        <v>1.2500000000000001E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="81"/>
-      <c r="B64" s="64"/>
+      <c r="A64" s="78"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="54"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="52"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="I64" s="37">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="J64" s="37">
+        <v>1.01E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="81"/>
-      <c r="B65" s="58" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -5090,83 +5335,113 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="56">
-        <v>0</v>
-      </c>
-      <c r="F65" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="53" t="s">
+      <c r="E65" s="54">
+        <v>0</v>
+      </c>
+      <c r="F65" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="48" t="s">
         <v>8</v>
       </c>
+      <c r="I65" s="37">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="J65" s="37">
+        <v>1.01E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="81"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="51"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="37">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="J66" s="37">
+        <v>1.21E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="81"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="76" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="51"/>
+      <c r="D67" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="37">
+        <v>0.6925</v>
+      </c>
+      <c r="J67" s="37">
+        <v>9.7000000000000003E-3</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="81"/>
-      <c r="B68" s="58" t="s">
+      <c r="A68" s="78"/>
+      <c r="B68" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="53">
-        <v>0</v>
-      </c>
-      <c r="F68" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="53" t="s">
+      <c r="E68" s="51">
+        <v>0</v>
+      </c>
+      <c r="F68" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="I68" s="37">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="J68" s="37">
+        <v>1.03E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="82"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="79"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
       <c r="H69" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="I69" s="37">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="J69" s="37">
+        <v>1.11E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5225,15 +5500,15 @@
       <c r="H73" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="72">
+      <c r="I73" s="69">
         <v>0.73809999999999998</v>
       </c>
-      <c r="J73" s="72">
+      <c r="J73" s="69">
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="80" t="s">
+      <c r="A74" s="77" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -5257,15 +5532,15 @@
       <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="71">
+      <c r="I74" s="68">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J74" s="71">
+      <c r="J74" s="68">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="81"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -5289,8 +5564,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="81"/>
-      <c r="B76" s="58" t="s">
+      <c r="A76" s="78"/>
+      <c r="B76" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -5299,10 +5574,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="56">
-        <v>0</v>
-      </c>
-      <c r="F76" s="56">
+      <c r="E76" s="54">
+        <v>0</v>
+      </c>
+      <c r="F76" s="54">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -5313,16 +5588,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="81"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="78"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -5331,16 +5606,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="81"/>
-      <c r="B78" s="64"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -5349,8 +5624,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="81"/>
-      <c r="B79" s="58" t="s">
+      <c r="A79" s="78"/>
+      <c r="B79" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -5359,13 +5634,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="56">
-        <v>0</v>
-      </c>
-      <c r="F79" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="53" t="s">
+      <c r="E79" s="54">
+        <v>0</v>
+      </c>
+      <c r="F79" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -5373,40 +5648,40 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="81"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="78"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="40"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="81"/>
-      <c r="B81" s="64"/>
+      <c r="A81" s="78"/>
+      <c r="B81" s="62"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="54"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="52"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="81"/>
-      <c r="B82" s="58" t="s">
+      <c r="A82" s="78"/>
+      <c r="B82" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -5415,65 +5690,65 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="56">
-        <v>0</v>
-      </c>
-      <c r="F82" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="53" t="s">
+      <c r="E82" s="54">
+        <v>0</v>
+      </c>
+      <c r="F82" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="50" t="s">
+      <c r="H82" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="81"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="78"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="51"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="49"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="81"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="76" t="s">
+      <c r="A84" s="78"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="51"/>
+      <c r="D84" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="81"/>
-      <c r="B85" s="58" t="s">
+      <c r="A85" s="78"/>
+      <c r="B85" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="53">
-        <v>0</v>
-      </c>
-      <c r="F85" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="53" t="s">
+      <c r="E85" s="51">
+        <v>0</v>
+      </c>
+      <c r="F85" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="21" t="s">
@@ -5481,15 +5756,15 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="82"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="79"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
       <c r="H86" s="23" t="s">
         <v>8</v>
       </c>
@@ -5612,23 +5887,23 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="39"/>
-    <col min="10" max="10" width="12.83203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="37"/>
+    <col min="10" max="10" width="12.83203125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -5639,10 +5914,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -5669,10 +5944,10 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5699,15 +5974,15 @@
       <c r="H5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="37">
         <v>0.35220000000000001</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="37">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5731,15 +6006,15 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>0.8589</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="37">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
@@ -5763,8 +6038,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5773,10 +6048,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="56">
-        <v>0</v>
-      </c>
-      <c r="F8" s="56">
+      <c r="E8" s="54">
+        <v>0</v>
+      </c>
+      <c r="F8" s="54">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -5787,16 +6062,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
@@ -5805,16 +6080,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
@@ -5823,8 +6098,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5833,13 +6108,13 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="56">
-        <v>0</v>
-      </c>
-      <c r="F11" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="53" t="s">
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -5847,40 +6122,40 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5889,65 +6164,65 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="56">
-        <v>0</v>
-      </c>
-      <c r="F14" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="53" t="s">
+      <c r="E14" s="54">
+        <v>0</v>
+      </c>
+      <c r="F14" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="51"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="52"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="61">
-        <v>0</v>
-      </c>
-      <c r="F17" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="61" t="s">
+      <c r="E17" s="59">
+        <v>0</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -5956,14 +6231,14 @@
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="24" t="s">
         <v>8</v>
       </c>
@@ -6018,15 +6293,15 @@
       <c r="H22" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="37">
         <v>0.28920000000000001</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="37">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -6050,15 +6325,15 @@
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="37">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="37">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -6082,8 +6357,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -6092,10 +6367,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="56">
-        <v>0</v>
-      </c>
-      <c r="F25" s="56">
+      <c r="E25" s="54">
+        <v>0</v>
+      </c>
+      <c r="F25" s="54">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -6106,16 +6381,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
@@ -6124,16 +6399,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
@@ -6142,8 +6417,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -6152,13 +6427,13 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="56">
-        <v>0</v>
-      </c>
-      <c r="F28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="53" t="s">
+      <c r="E28" s="54">
+        <v>0</v>
+      </c>
+      <c r="F28" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -6166,40 +6441,40 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="58" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -6208,65 +6483,65 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="56">
-        <v>0</v>
-      </c>
-      <c r="F31" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="53" t="s">
+      <c r="E31" s="54">
+        <v>0</v>
+      </c>
+      <c r="F31" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="51"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="52"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="61">
-        <v>0</v>
-      </c>
-      <c r="F34" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="61" t="s">
+      <c r="E34" s="59">
+        <v>0</v>
+      </c>
+      <c r="F34" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="24" t="s">
@@ -6274,14 +6549,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="24" t="s">
         <v>8</v>
       </c>
@@ -6345,15 +6620,15 @@
       <c r="H39" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="37">
         <v>0.42280000000000001</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="37">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -6377,15 +6652,15 @@
       <c r="H40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="37">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="37">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -6409,8 +6684,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -6419,10 +6694,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="56">
-        <v>0</v>
-      </c>
-      <c r="F42" s="56">
+      <c r="E42" s="54">
+        <v>0</v>
+      </c>
+      <c r="F42" s="54">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6433,16 +6708,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
@@ -6451,16 +6726,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
@@ -6469,8 +6744,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -6479,13 +6754,13 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="56">
-        <v>0</v>
-      </c>
-      <c r="F45" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="53" t="s">
+      <c r="E45" s="54">
+        <v>0</v>
+      </c>
+      <c r="F45" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -6493,40 +6768,40 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -6535,65 +6810,65 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="56">
-        <v>0</v>
-      </c>
-      <c r="F48" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="53" t="s">
+      <c r="E48" s="54">
+        <v>0</v>
+      </c>
+      <c r="F48" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="51"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="52"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="61">
-        <v>0</v>
-      </c>
-      <c r="F51" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="61" t="s">
+      <c r="E51" s="59">
+        <v>0</v>
+      </c>
+      <c r="F51" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="24" t="s">
@@ -6601,14 +6876,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
       <c r="H52" s="24" t="s">
         <v>8</v>
       </c>
@@ -6672,15 +6947,15 @@
       <c r="H56" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="39">
+      <c r="I56" s="37">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J56" s="39">
+      <c r="J56" s="37">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="60" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -6704,15 +6979,15 @@
       <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="39">
+      <c r="I57" s="37">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="37">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -6736,8 +7011,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="58" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -6746,10 +7021,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="56">
-        <v>0</v>
-      </c>
-      <c r="F59" s="56">
+      <c r="E59" s="54">
+        <v>0</v>
+      </c>
+      <c r="F59" s="54">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -6760,16 +7035,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
@@ -6778,16 +7053,16 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
@@ -6796,8 +7071,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="58" t="s">
+      <c r="A62" s="45"/>
+      <c r="B62" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -6806,13 +7081,13 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="56">
-        <v>0</v>
-      </c>
-      <c r="F62" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="53" t="s">
+      <c r="E62" s="54">
+        <v>0</v>
+      </c>
+      <c r="F62" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -6820,40 +7095,40 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="64"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="54"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="52"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="58" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -6862,65 +7137,65 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="56">
-        <v>0</v>
-      </c>
-      <c r="F65" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="53" t="s">
+      <c r="E65" s="54">
+        <v>0</v>
+      </c>
+      <c r="F65" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="51"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="52"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="61">
-        <v>0</v>
-      </c>
-      <c r="F68" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="61" t="s">
+      <c r="E68" s="59">
+        <v>0</v>
+      </c>
+      <c r="F68" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="24" t="s">
@@ -6928,14 +7203,14 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="55"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
       <c r="H69" s="24" t="s">
         <v>8</v>
       </c>
@@ -6975,10 +7250,10 @@
       <c r="H72" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="40" t="s">
+      <c r="I72" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="40" t="s">
+      <c r="J72" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7005,15 +7280,15 @@
       <c r="H73" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I73" s="37">
         <v>0.73809999999999998</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="37">
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -7037,15 +7312,15 @@
       <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="39">
+      <c r="I74" s="37">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="37">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -7069,8 +7344,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="58" t="s">
+      <c r="A76" s="45"/>
+      <c r="B76" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -7079,10 +7354,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="56">
-        <v>0</v>
-      </c>
-      <c r="F76" s="56">
+      <c r="E76" s="54">
+        <v>0</v>
+      </c>
+      <c r="F76" s="54">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -7093,16 +7368,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -7111,16 +7386,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="64"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -7129,8 +7404,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="58" t="s">
+      <c r="A79" s="45"/>
+      <c r="B79" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -7139,13 +7414,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="56">
-        <v>0</v>
-      </c>
-      <c r="F79" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="53" t="s">
+      <c r="E79" s="54">
+        <v>0</v>
+      </c>
+      <c r="F79" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -7153,40 +7428,40 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="40"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="64"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="62"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="54"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="52"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="58" t="s">
+      <c r="A82" s="45"/>
+      <c r="B82" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -7195,65 +7470,65 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="56">
-        <v>0</v>
-      </c>
-      <c r="F82" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="53" t="s">
+      <c r="E82" s="54">
+        <v>0</v>
+      </c>
+      <c r="F82" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="50" t="s">
+      <c r="H82" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="51"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="49"/>
     </row>
     <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="59"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="52"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="61">
-        <v>0</v>
-      </c>
-      <c r="F85" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="61" t="s">
+      <c r="E85" s="59">
+        <v>0</v>
+      </c>
+      <c r="F85" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="24" t="s">
@@ -7261,14 +7536,14 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="55"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
       <c r="H86" s="24" t="s">
         <v>8</v>
       </c>
@@ -7394,22 +7669,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="69"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -7441,7 +7716,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -7462,15 +7737,15 @@
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="37">
         <v>0.8589</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="37">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -7491,8 +7766,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7501,10 +7776,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="56">
+      <c r="E6" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="54">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -7512,38 +7787,38 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -7552,73 +7827,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="53" t="s">
+      <c r="E9" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="55"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="61">
-        <v>0</v>
-      </c>
-      <c r="F12" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="61" t="s">
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -7645,7 +7920,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -7666,15 +7941,15 @@
       <c r="G17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <v>0.73580000000000001</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="37">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -7695,8 +7970,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7705,10 +7980,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="56">
+      <c r="E19" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="54">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -7716,38 +7991,38 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -7756,74 +8031,74 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="53" t="s">
+      <c r="E22" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="55"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="61">
-        <v>0</v>
-      </c>
-      <c r="F25" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="61" t="s">
+      <c r="E25" s="59">
+        <v>0</v>
+      </c>
+      <c r="F25" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7851,7 +8126,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -7872,15 +8147,15 @@
       <c r="G30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="37">
         <v>0.89239999999999997</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="37">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -7901,8 +8176,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -7911,10 +8186,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="56">
+      <c r="E32" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="54">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -7922,38 +8197,38 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="58" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -7962,74 +8237,74 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="53" t="s">
+      <c r="E35" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="61">
-        <v>0</v>
-      </c>
-      <c r="F38" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="61" t="s">
+      <c r="E38" s="59">
+        <v>0</v>
+      </c>
+      <c r="F38" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8057,7 +8332,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="60" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -8078,15 +8353,15 @@
       <c r="G43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="37">
         <v>0.88339999999999996</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I43" s="37">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -8107,8 +8382,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -8117,10 +8392,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="56">
+      <c r="E45" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="54">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -8128,38 +8403,38 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -8168,74 +8443,74 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="53" t="s">
+      <c r="E48" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="61">
-        <v>0</v>
-      </c>
-      <c r="F51" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="61" t="s">
+      <c r="E51" s="59">
+        <v>0</v>
+      </c>
+      <c r="F51" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
       <c r="H52" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8263,7 +8538,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -8284,15 +8559,15 @@
       <c r="G56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="39">
+      <c r="H56" s="37">
         <v>0.85850000000000004</v>
       </c>
-      <c r="I56" s="39">
+      <c r="I56" s="37">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -8313,8 +8588,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="58" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -8323,10 +8598,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="56">
+      <c r="E58" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="54">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -8334,38 +8609,38 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="64"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="58" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -8374,74 +8649,74 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="53" t="s">
+      <c r="E61" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="55"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="61">
-        <v>0</v>
-      </c>
-      <c r="F64" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="61" t="s">
+      <c r="E64" s="59">
+        <v>0</v>
+      </c>
+      <c r="F64" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="59" t="s">
         <v>8</v>
       </c>
       <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="30"/>
     </row>
   </sheetData>
@@ -8540,22 +8815,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="69"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8587,7 +8862,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -8608,15 +8883,15 @@
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="37">
         <v>0.8589</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="37">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -8637,8 +8912,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8647,10 +8922,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="56">
+      <c r="E6" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="54">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -8658,38 +8933,38 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -8698,73 +8973,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="53" t="s">
+      <c r="E9" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="55"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="61">
-        <v>0</v>
-      </c>
-      <c r="F12" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="61" t="s">
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8791,7 +9066,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -8812,15 +9087,15 @@
       <c r="G17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <v>0.73580000000000001</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="37">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -8841,8 +9116,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -8851,10 +9126,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="56">
+      <c r="E19" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="54">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -8862,38 +9137,38 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -8902,73 +9177,73 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="53" t="s">
+      <c r="E22" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="55"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="61">
-        <v>0</v>
-      </c>
-      <c r="F25" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="61" t="s">
+      <c r="E25" s="59">
+        <v>0</v>
+      </c>
+      <c r="F25" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -8995,7 +9270,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -9016,15 +9291,15 @@
       <c r="G30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="37">
         <v>0.89239999999999997</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="37">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -9045,8 +9320,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -9055,10 +9330,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="56">
+      <c r="E32" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="54">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -9066,38 +9341,38 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="58" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -9106,73 +9381,73 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="53" t="s">
+      <c r="E35" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="61">
-        <v>0</v>
-      </c>
-      <c r="F38" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="61" t="s">
+      <c r="E38" s="59">
+        <v>0</v>
+      </c>
+      <c r="F38" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -9199,7 +9474,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -9220,15 +9495,15 @@
       <c r="G43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="37">
         <v>0.88339999999999996</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I43" s="37">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -9249,8 +9524,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -9259,10 +9534,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="56">
+      <c r="E45" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="54">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -9270,38 +9545,38 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -9310,73 +9585,73 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="53" t="s">
+      <c r="E48" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="61">
-        <v>0</v>
-      </c>
-      <c r="F51" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="61" t="s">
+      <c r="E51" s="59">
+        <v>0</v>
+      </c>
+      <c r="F51" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9403,7 +9678,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -9424,15 +9699,15 @@
       <c r="G56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="39">
+      <c r="H56" s="37">
         <v>0.85850000000000004</v>
       </c>
-      <c r="I56" s="39">
+      <c r="I56" s="37">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -9453,8 +9728,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="58" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -9463,10 +9738,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="56">
+      <c r="E58" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="54">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -9474,38 +9749,38 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="64"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="58" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -9514,73 +9789,73 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="53" t="s">
+      <c r="E61" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="55"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="61">
-        <v>0</v>
-      </c>
-      <c r="F64" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="61" t="s">
+      <c r="E64" s="59">
+        <v>0</v>
+      </c>
+      <c r="F64" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="67">

--- a/Final Result/06XX.xlsx
+++ b/Final Result/06XX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB22B7EA-4D96-4941-B7F4-90CC15F95151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65499F5D-CAA1-664D-B04A-B7D28A2F9C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
   </bookViews>
@@ -588,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,9 +657,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -800,6 +797,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,6 +811,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1126,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD3DA2-AFDD-A94B-906F-D74F5151AC29}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView topLeftCell="A38" zoomScale="136" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,79 +1157,79 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="37"/>
-    <col min="10" max="10" width="13.83203125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="36"/>
+    <col min="10" max="10" width="13.83203125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="47" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="36">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="35">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1223,15 +1241,15 @@
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="68">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="68">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1253,15 +1271,15 @@
       <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="67">
         <v>0.8589</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="67">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -1283,16 +1301,16 @@
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="70">
         <v>0.71740000000000004</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="70">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1301,10 +1319,10 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="E7" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="42">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1313,64 +1331,64 @@
       <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>0.74409999999999998</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1379,71 +1397,71 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="43">
-        <v>0</v>
-      </c>
-      <c r="G10" s="40" t="s">
+      <c r="E10" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="40"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="40"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="36">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
@@ -1465,15 +1483,15 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="69">
         <v>0.73519999999999996</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="69">
         <v>2.53E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -1495,16 +1513,16 @@
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="66">
         <v>0.80300000000000005</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="66">
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1513,10 +1531,10 @@
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <v>0.3</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1525,64 +1543,64 @@
       <c r="H15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>0.74780000000000002</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1591,71 +1609,71 @@
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <v>0.3</v>
       </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="40" t="s">
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="40"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="40"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>0.76590000000000003</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
@@ -1677,10 +1695,10 @@
       <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="69">
         <v>0.73519999999999996</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J21" s="69">
         <v>2.53E-2</v>
       </c>
     </row>
@@ -1689,46 +1707,46 @@
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="36">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="35">
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -1740,15 +1758,15 @@
       <c r="H25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="69">
+      <c r="I25" s="68">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J25" s="69">
+      <c r="J25" s="68">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1768,15 +1786,15 @@
       <c r="H26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="67">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="67">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
@@ -1796,16 +1814,16 @@
       <c r="H27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="70">
         <v>0.65329999999999999</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="70">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1814,10 +1832,10 @@
       <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="43">
+      <c r="E28" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="42">
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1826,64 +1844,64 @@
       <c r="H28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>0.6946</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="38">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <v>0.6946</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="38">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>0.6946</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="38">
         <v>1.95E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="42" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1892,71 +1910,71 @@
       <c r="D31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="43">
-        <v>0</v>
-      </c>
-      <c r="G31" s="40" t="s">
+      <c r="E31" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="42">
+        <v>0</v>
+      </c>
+      <c r="G31" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>0.6895</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="40"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="36">
         <v>0.6895</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="36">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="40"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="36">
         <v>0.6895</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="36">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1978,15 +1996,15 @@
       <c r="H34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="69">
         <v>0.68130000000000002</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="69">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
@@ -2006,16 +2024,16 @@
       <c r="H35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>0.69040000000000001</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2024,10 +2042,10 @@
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="42">
         <v>0.3</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="42">
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2036,64 +2054,64 @@
       <c r="H36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="36">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="36">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="36">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="36">
         <v>0.69730000000000003</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2102,71 +2120,71 @@
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="42">
         <v>0.3</v>
       </c>
-      <c r="F39" s="43">
-        <v>0</v>
-      </c>
-      <c r="G39" s="40" t="s">
+      <c r="F39" s="42">
+        <v>0</v>
+      </c>
+      <c r="G39" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="36">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="36">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="40"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="36">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="36">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="42"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="40"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <v>0.70240000000000002</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="36">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -2188,10 +2206,10 @@
       <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="70">
+      <c r="I42" s="69">
         <v>0.68130000000000002</v>
       </c>
-      <c r="J42" s="70">
+      <c r="J42" s="69">
         <v>2.12E-2</v>
       </c>
     </row>
@@ -2200,46 +2218,46 @@
       <c r="A45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="38" t="s">
+      <c r="I45" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="38" t="s">
+      <c r="J45" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="36">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="35">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -2251,15 +2269,15 @@
       <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="69">
+      <c r="I46" s="68">
         <v>0.79139999999999999</v>
       </c>
-      <c r="J46" s="69">
+      <c r="J46" s="68">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
@@ -2279,15 +2297,15 @@
       <c r="H47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="68">
+      <c r="I47" s="67">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J47" s="68">
+      <c r="J47" s="67">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2307,16 +2325,16 @@
       <c r="H48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="36">
         <v>0.83989999999999998</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="36">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="42" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2325,10 +2343,10 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="43">
+      <c r="E49" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="42">
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -2337,64 +2355,64 @@
       <c r="H49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="36">
         <v>0.83799999999999997</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="36">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
       <c r="G50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="36">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="36">
         <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
       <c r="G51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="36">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="36">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2403,71 +2421,71 @@
       <c r="D52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F52" s="43">
-        <v>0</v>
-      </c>
-      <c r="G52" s="40" t="s">
+      <c r="E52" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="42">
+        <v>0</v>
+      </c>
+      <c r="G52" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="36">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="36">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="40"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="36">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J53" s="37">
+      <c r="J53" s="36">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="40"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="36">
         <v>0.83450000000000002</v>
       </c>
-      <c r="J54" s="37">
+      <c r="J54" s="36">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="9" t="s">
         <v>42</v>
       </c>
@@ -2489,15 +2507,15 @@
       <c r="H55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="72">
+      <c r="I55" s="71">
         <v>0.81989999999999996</v>
       </c>
-      <c r="J55" s="72">
+      <c r="J55" s="71">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="10" t="s">
         <v>7</v>
       </c>
@@ -2517,16 +2535,16 @@
       <c r="H56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="37">
+      <c r="I56" s="36">
         <v>0.86460000000000004</v>
       </c>
-      <c r="J56" s="37">
+      <c r="J56" s="36">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="44"/>
+      <c r="B57" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2535,10 +2553,10 @@
       <c r="D57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="42">
         <v>0.3</v>
       </c>
-      <c r="F57" s="43">
+      <c r="F57" s="42">
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2547,64 +2565,64 @@
       <c r="H57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="37">
+      <c r="I57" s="36">
         <v>0.8599</v>
       </c>
-      <c r="J57" s="37">
+      <c r="J57" s="36">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
       <c r="G58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="37">
+      <c r="I58" s="36">
         <v>0.86019999999999996</v>
       </c>
-      <c r="J58" s="37">
+      <c r="J58" s="36">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="37">
+      <c r="I59" s="36">
         <v>0.8599</v>
       </c>
-      <c r="J59" s="37">
+      <c r="J59" s="36">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="42" t="s">
+      <c r="A60" s="44"/>
+      <c r="B60" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2613,71 +2631,71 @@
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="42">
         <v>0.3</v>
       </c>
-      <c r="F60" s="43">
-        <v>0</v>
-      </c>
-      <c r="G60" s="40" t="s">
+      <c r="F60" s="42">
+        <v>0</v>
+      </c>
+      <c r="G60" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="37">
+      <c r="I60" s="36">
         <v>0.86450000000000005</v>
       </c>
-      <c r="J60" s="37">
+      <c r="J60" s="36">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="40"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="36">
         <v>0.86229999999999996</v>
       </c>
-      <c r="J61" s="37">
+      <c r="J61" s="36">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="40"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="39"/>
       <c r="H62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="36">
         <v>0.86019999999999996</v>
       </c>
-      <c r="J62" s="37">
+      <c r="J62" s="36">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
@@ -2699,10 +2717,10 @@
       <c r="H63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="36">
         <v>0.83209999999999995</v>
       </c>
-      <c r="J63" s="37">
+      <c r="J63" s="36">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
@@ -2711,46 +2729,46 @@
       <c r="A66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="28" t="s">
+      <c r="B66" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G66" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="28" t="s">
+      <c r="H66" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="38" t="s">
+      <c r="I66" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="38" t="s">
+      <c r="J66" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="36">
+      <c r="C67" s="31"/>
+      <c r="D67" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="35">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -2762,15 +2780,15 @@
       <c r="H67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="69">
+      <c r="I67" s="68">
         <v>0.75160000000000005</v>
       </c>
-      <c r="J67" s="69">
+      <c r="J67" s="68">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="8" t="s">
         <v>6</v>
       </c>
@@ -2790,15 +2808,15 @@
       <c r="H68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="68">
+      <c r="I68" s="67">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J68" s="68">
+      <c r="J68" s="67">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="45"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="10" t="s">
         <v>7</v>
       </c>
@@ -2818,16 +2836,16 @@
       <c r="H69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="72">
+      <c r="I69" s="71">
         <v>0.74629999999999996</v>
       </c>
-      <c r="J69" s="72">
+      <c r="J69" s="71">
         <v>1.21E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="45"/>
-      <c r="B70" s="42" t="s">
+      <c r="A70" s="44"/>
+      <c r="B70" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -2836,10 +2854,10 @@
       <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F70" s="43">
+      <c r="E70" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="42">
         <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -2848,64 +2866,64 @@
       <c r="H70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="36">
         <v>0.754</v>
       </c>
-      <c r="J70" s="37">
+      <c r="J70" s="36">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="45"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
       <c r="G71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="36">
         <v>0.75490000000000002</v>
       </c>
-      <c r="J71" s="37">
+      <c r="J71" s="36">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
       <c r="G72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="37">
+      <c r="I72" s="36">
         <v>0.754</v>
       </c>
-      <c r="J72" s="37">
+      <c r="J72" s="36">
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="45"/>
-      <c r="B73" s="42" t="s">
+      <c r="A73" s="44"/>
+      <c r="B73" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -2914,71 +2932,71 @@
       <c r="D73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F73" s="43">
-        <v>0</v>
-      </c>
-      <c r="G73" s="40" t="s">
+      <c r="E73" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="42">
+        <v>0</v>
+      </c>
+      <c r="G73" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="37">
+      <c r="I73" s="36">
         <v>0.75570000000000004</v>
       </c>
-      <c r="J73" s="37">
+      <c r="J73" s="36">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="40"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="37">
+      <c r="I74" s="36">
         <v>0.75380000000000003</v>
       </c>
-      <c r="J74" s="37">
+      <c r="J74" s="36">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="45"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="40"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="36">
         <v>0.75570000000000004</v>
       </c>
-      <c r="J75" s="37">
+      <c r="J75" s="36">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
+      <c r="A76" s="44"/>
       <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
@@ -3000,15 +3018,15 @@
       <c r="H76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="37">
+      <c r="I76" s="36">
         <v>0.78220000000000001</v>
       </c>
-      <c r="J76" s="37">
+      <c r="J76" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="10" t="s">
         <v>7</v>
       </c>
@@ -3028,16 +3046,16 @@
       <c r="H77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I77" s="37">
+      <c r="I77" s="36">
         <v>0.81540000000000001</v>
       </c>
-      <c r="J77" s="37">
+      <c r="J77" s="36">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="45"/>
-      <c r="B78" s="42" t="s">
+      <c r="A78" s="44"/>
+      <c r="B78" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -3046,10 +3064,10 @@
       <c r="D78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="43">
+      <c r="E78" s="42">
         <v>0.3</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="42">
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -3058,64 +3076,64 @@
       <c r="H78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="37">
+      <c r="I78" s="36">
         <v>0.81669999999999998</v>
       </c>
-      <c r="J78" s="37">
+      <c r="J78" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
       <c r="G79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="37">
+      <c r="I79" s="36">
         <v>0.81659999999999999</v>
       </c>
-      <c r="J79" s="37">
+      <c r="J79" s="36">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
       <c r="G80" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="37">
+      <c r="I80" s="36">
         <v>0.81720000000000004</v>
       </c>
-      <c r="J80" s="37">
+      <c r="J80" s="36">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
-      <c r="B81" s="42" t="s">
+      <c r="A81" s="44"/>
+      <c r="B81" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -3124,71 +3142,71 @@
       <c r="D81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="43">
+      <c r="E81" s="42">
         <v>0.3</v>
       </c>
-      <c r="F81" s="43">
-        <v>0</v>
-      </c>
-      <c r="G81" s="40" t="s">
+      <c r="F81" s="42">
+        <v>0</v>
+      </c>
+      <c r="G81" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="37">
+      <c r="I81" s="36">
         <v>0.81679999999999997</v>
       </c>
-      <c r="J81" s="37">
+      <c r="J81" s="36">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="40"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="37">
+      <c r="I82" s="36">
         <v>0.81710000000000005</v>
       </c>
-      <c r="J82" s="37">
+      <c r="J82" s="36">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="40"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="37">
+      <c r="I83" s="36">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J83" s="37">
+      <c r="J83" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="8" t="s">
         <v>42</v>
       </c>
@@ -3210,10 +3228,10 @@
       <c r="H84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="37">
+      <c r="I84" s="36">
         <v>0.78259999999999996</v>
       </c>
-      <c r="J84" s="37">
+      <c r="J84" s="36">
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
@@ -3222,46 +3240,46 @@
       <c r="A87" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="28" t="s">
+      <c r="B87" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G87" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="H87" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I87" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J87" s="38" t="s">
+      <c r="J87" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="36">
+      <c r="C88" s="31"/>
+      <c r="D88" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="35">
         <v>1</v>
       </c>
       <c r="F88" s="7" t="s">
@@ -3273,15 +3291,15 @@
       <c r="H88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="69">
+      <c r="I88" s="68">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J88" s="69">
+      <c r="J88" s="68">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="45"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="8" t="s">
         <v>6</v>
       </c>
@@ -3301,15 +3319,15 @@
       <c r="H89" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="68">
+      <c r="I89" s="67">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J89" s="68">
+      <c r="J89" s="67">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
+      <c r="A90" s="44"/>
       <c r="B90" s="10" t="s">
         <v>7</v>
       </c>
@@ -3329,16 +3347,16 @@
       <c r="H90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="37">
+      <c r="I90" s="36">
         <v>0.84760000000000002</v>
       </c>
-      <c r="J90" s="37">
+      <c r="J90" s="36">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
-      <c r="B91" s="42" t="s">
+      <c r="A91" s="44"/>
+      <c r="B91" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -3347,10 +3365,10 @@
       <c r="D91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F91" s="43">
+      <c r="E91" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F91" s="42">
         <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -3359,64 +3377,64 @@
       <c r="H91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="37">
+      <c r="I91" s="36">
         <v>0.85150000000000003</v>
       </c>
-      <c r="J91" s="37">
+      <c r="J91" s="36">
         <v>5.3E-3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
       <c r="G92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="37">
+      <c r="I92" s="36">
         <v>0.85029999999999994</v>
       </c>
-      <c r="J92" s="37">
+      <c r="J92" s="36">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="45"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
       <c r="G93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I93" s="37">
+      <c r="I93" s="36">
         <v>0.85140000000000005</v>
       </c>
-      <c r="J93" s="37">
+      <c r="J93" s="36">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="45"/>
-      <c r="B94" s="42" t="s">
+      <c r="A94" s="44"/>
+      <c r="B94" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -3425,71 +3443,71 @@
       <c r="D94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="F94" s="43">
-        <v>0</v>
-      </c>
-      <c r="G94" s="40" t="s">
+      <c r="E94" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F94" s="42">
+        <v>0</v>
+      </c>
+      <c r="G94" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="37">
+      <c r="I94" s="36">
         <v>0.85470000000000002</v>
       </c>
-      <c r="J94" s="37">
+      <c r="J94" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
-      <c r="B95" s="42"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="41"/>
       <c r="C95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="40"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="39"/>
       <c r="H95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I95" s="36">
         <v>0.85470000000000002</v>
       </c>
-      <c r="J95" s="37">
+      <c r="J95" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="45"/>
-      <c r="B96" s="42"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="40"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="39"/>
       <c r="H96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I96" s="37">
+      <c r="I96" s="36">
         <v>0.85409999999999997</v>
       </c>
-      <c r="J96" s="37">
+      <c r="J96" s="36">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="45"/>
+      <c r="A97" s="44"/>
       <c r="B97" s="8" t="s">
         <v>42</v>
       </c>
@@ -3511,15 +3529,15 @@
       <c r="H97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="37">
+      <c r="I97" s="36">
         <v>0.85340000000000005</v>
       </c>
-      <c r="J97" s="37">
+      <c r="J97" s="36">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="45"/>
+      <c r="A98" s="44"/>
       <c r="B98" s="10" t="s">
         <v>7</v>
       </c>
@@ -3539,16 +3557,16 @@
       <c r="H98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I98" s="37">
+      <c r="I98" s="36">
         <v>0.85209999999999997</v>
       </c>
-      <c r="J98" s="37">
+      <c r="J98" s="36">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
-      <c r="B99" s="42" t="s">
+      <c r="A99" s="44"/>
+      <c r="B99" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -3557,10 +3575,10 @@
       <c r="D99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="43">
+      <c r="E99" s="42">
         <v>0.3</v>
       </c>
-      <c r="F99" s="43">
+      <c r="F99" s="42">
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -3569,64 +3587,64 @@
       <c r="H99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I99" s="37">
+      <c r="I99" s="36">
         <v>0.84240000000000004</v>
       </c>
-      <c r="J99" s="37">
+      <c r="J99" s="36">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="45"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="41"/>
       <c r="C100" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
       <c r="G100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="37">
+      <c r="I100" s="36">
         <v>0.84250000000000003</v>
       </c>
-      <c r="J100" s="37">
+      <c r="J100" s="36">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="45"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="44"/>
+      <c r="B101" s="41"/>
       <c r="C101" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
       <c r="G101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="37">
+      <c r="I101" s="36">
         <v>0.84240000000000004</v>
       </c>
-      <c r="J101" s="37">
+      <c r="J101" s="36">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
-      <c r="B102" s="42" t="s">
+      <c r="A102" s="44"/>
+      <c r="B102" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -3635,71 +3653,71 @@
       <c r="D102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="43">
+      <c r="E102" s="42">
         <v>0.3</v>
       </c>
-      <c r="F102" s="43">
-        <v>0</v>
-      </c>
-      <c r="G102" s="40" t="s">
+      <c r="F102" s="42">
+        <v>0</v>
+      </c>
+      <c r="G102" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="37">
+      <c r="I102" s="36">
         <v>0.84250000000000003</v>
       </c>
-      <c r="J102" s="37">
+      <c r="J102" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="45"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="41"/>
       <c r="C103" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="40"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="39"/>
       <c r="H103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I103" s="37">
+      <c r="I103" s="36">
         <v>0.8427</v>
       </c>
-      <c r="J103" s="37">
+      <c r="J103" s="36">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="45"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="40"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="39"/>
       <c r="H104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I104" s="37">
+      <c r="I104" s="36">
         <v>0.84389999999999998</v>
       </c>
-      <c r="J104" s="37">
+      <c r="J104" s="36">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="8" t="s">
         <v>42</v>
       </c>
@@ -3721,10 +3739,10 @@
       <c r="H105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="37">
+      <c r="I105" s="36">
         <v>0.8528</v>
       </c>
-      <c r="J105" s="37">
+      <c r="J105" s="36">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
@@ -3817,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C3A3C-90F9-3641-9386-0565683637CB}">
   <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3831,23 +3849,23 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="37" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -3858,10 +3876,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -3888,47 +3906,47 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="35">
+      <c r="C5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="34">
         <v>1</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="69">
+      <c r="G5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="68">
         <v>0.35220000000000001</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="68">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
@@ -3950,15 +3968,15 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="67">
         <v>0.8589</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="67">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
@@ -3980,16 +3998,16 @@
       <c r="H7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <v>0.76929999999999998</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="64" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3998,10 +4016,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="54">
-        <v>0</v>
-      </c>
-      <c r="F8" s="54">
+      <c r="E8" s="53">
+        <v>0</v>
+      </c>
+      <c r="F8" s="53">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -4010,64 +4028,64 @@
       <c r="H8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>0.65890000000000004</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>6.3600000000000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>0.65259999999999996</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>4.5400000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="71">
         <v>0.6341</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="71">
         <v>6.3100000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="64" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4076,72 +4094,72 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="54">
-        <v>0</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="51" t="s">
+      <c r="E11" s="53">
+        <v>0</v>
+      </c>
+      <c r="F11" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>0.75590000000000002</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="75"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="40"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="36">
         <v>0.75219999999999998</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <v>2.47E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>0.69589999999999996</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>2.46E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="64" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -4150,112 +4168,112 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="54">
-        <v>0</v>
-      </c>
-      <c r="F14" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="51" t="s">
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>0.75780000000000003</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>2.86E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="37">
+      <c r="E15" s="42"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="36">
         <v>0.77190000000000003</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="73" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="37">
+      <c r="D16" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="36">
         <v>0.75560000000000005</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>2.64E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="51">
-        <v>0</v>
-      </c>
-      <c r="F17" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="E17" s="50">
+        <v>0</v>
+      </c>
+      <c r="F17" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>0.79039999999999999</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <v>0.7722</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
@@ -4285,47 +4303,47 @@
       <c r="H21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="35">
+      <c r="C22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="34">
         <v>1</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="69">
+      <c r="G22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="68">
         <v>0.28920000000000001</v>
       </c>
-      <c r="J22" s="69">
+      <c r="J22" s="68">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
@@ -4347,15 +4365,15 @@
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="67">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="67">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -4377,16 +4395,16 @@
       <c r="H24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="36">
         <v>0.69130000000000003</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="36">
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -4395,10 +4413,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="54">
-        <v>0</v>
-      </c>
-      <c r="F25" s="54">
+      <c r="E25" s="53">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4407,64 +4425,64 @@
       <c r="H25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="71">
         <v>0.53369999999999995</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="71">
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>0.55869999999999997</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="36">
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="62"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <v>0.5464</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="36">
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="79"/>
+      <c r="B28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4473,72 +4491,72 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="54">
-        <v>0</v>
-      </c>
-      <c r="F28" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="51" t="s">
+      <c r="E28" s="53">
+        <v>0</v>
+      </c>
+      <c r="F28" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>0.68489999999999995</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="40"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <v>0.68340000000000001</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="36">
         <v>2.18E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="52"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>0.68340000000000001</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="36">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="79"/>
+      <c r="B31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4547,112 +4565,112 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="54">
-        <v>0</v>
-      </c>
-      <c r="F31" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="51" t="s">
+      <c r="E31" s="53">
+        <v>0</v>
+      </c>
+      <c r="F31" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>0.68669999999999998</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="37">
+      <c r="E32" s="42"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="36">
         <v>0.69040000000000001</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="36">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="73" t="s">
+      <c r="A33" s="79"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="37">
+      <c r="D33" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="36">
         <v>0.68700000000000006</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="36">
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="51">
-        <v>0</v>
-      </c>
-      <c r="F34" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="51" t="s">
+      <c r="E34" s="50">
+        <v>0</v>
+      </c>
+      <c r="F34" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>0.68130000000000002</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="36">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="79"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="76"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>0.69099999999999995</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>2.46E-2</v>
       </c>
     </row>
@@ -4682,45 +4700,45 @@
       <c r="H38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="I38" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="35">
+      <c r="C39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="34">
         <v>1</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="69">
+      <c r="G39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="68">
         <v>0.42280000000000001</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="68">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="78" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -4744,15 +4762,15 @@
       <c r="H40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="68">
+      <c r="I40" s="67">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="67">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -4774,16 +4792,16 @@
       <c r="H41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <v>0.77270000000000005</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="36">
         <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -4792,10 +4810,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="54">
-        <v>0</v>
-      </c>
-      <c r="F42" s="54">
+      <c r="E42" s="53">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4804,64 +4822,64 @@
       <c r="H42" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="36">
         <v>0.60570000000000002</v>
       </c>
-      <c r="J42" s="37">
+      <c r="J42" s="36">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>0.63500000000000001</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="36">
         <v>1.32E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="72">
+      <c r="I44" s="71">
         <v>0.51529999999999998</v>
       </c>
-      <c r="J44" s="72">
+      <c r="J44" s="71">
         <v>1.11E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="79"/>
+      <c r="B45" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -4870,72 +4888,72 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="54">
-        <v>0</v>
-      </c>
-      <c r="F45" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="51" t="s">
+      <c r="E45" s="53">
+        <v>0</v>
+      </c>
+      <c r="F45" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="36">
         <v>0.80469999999999997</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="36">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="40"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="36">
         <v>0.72629999999999995</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="36">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="52"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="51"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="36">
         <v>0.6996</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="36">
         <v>1.14E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -4944,83 +4962,83 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="54">
-        <v>0</v>
-      </c>
-      <c r="F48" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="51" t="s">
+      <c r="E48" s="53">
+        <v>0</v>
+      </c>
+      <c r="F48" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="36">
         <v>0.78039999999999998</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="36">
         <v>1.14E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="37">
+      <c r="E49" s="42"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="36">
         <v>0.71540000000000004</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="36">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="73" t="s">
+      <c r="A50" s="79"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="37">
+      <c r="D50" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="36">
         <v>0.71350000000000002</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="36">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="56" t="s">
+      <c r="A51" s="79"/>
+      <c r="B51" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="51" t="s">
+      <c r="E51" s="50">
+        <v>0</v>
+      </c>
+      <c r="F51" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="21" t="s">
@@ -5028,22 +5046,22 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="76"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="36">
         <v>0.76790000000000003</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="36">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
@@ -5073,45 +5091,45 @@
       <c r="H55" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="38" t="s">
+      <c r="I55" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="38" t="s">
+      <c r="J55" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="35">
+      <c r="C56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="34">
         <v>1</v>
       </c>
-      <c r="G56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="69">
+      <c r="G56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="68">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J56" s="69">
+      <c r="J56" s="68">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -5135,15 +5153,15 @@
       <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="68">
+      <c r="I57" s="67">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J57" s="68">
+      <c r="J57" s="67">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -5165,16 +5183,16 @@
       <c r="H58" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="37">
+      <c r="I58" s="36">
         <v>0.69120000000000004</v>
       </c>
-      <c r="J58" s="37">
+      <c r="J58" s="36">
         <v>1.11E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="56" t="s">
+      <c r="A59" s="79"/>
+      <c r="B59" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -5183,10 +5201,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="54">
-        <v>0</v>
-      </c>
-      <c r="F59" s="54">
+      <c r="E59" s="53">
+        <v>0</v>
+      </c>
+      <c r="F59" s="53">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -5195,64 +5213,64 @@
       <c r="H59" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="37">
+      <c r="I59" s="36">
         <v>0.41549999999999998</v>
       </c>
-      <c r="J59" s="37">
+      <c r="J59" s="36">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="37">
+      <c r="I60" s="36">
         <v>0.44619999999999999</v>
       </c>
-      <c r="J60" s="37">
+      <c r="J60" s="36">
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="62"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="72">
+      <c r="I61" s="71">
         <v>0.2482</v>
       </c>
-      <c r="J61" s="72">
+      <c r="J61" s="71">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="78"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="79"/>
+      <c r="B62" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -5261,72 +5279,72 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="54">
-        <v>0</v>
-      </c>
-      <c r="F62" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="51" t="s">
+      <c r="E62" s="53">
+        <v>0</v>
+      </c>
+      <c r="F62" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="36">
         <v>0.69169999999999998</v>
       </c>
-      <c r="J62" s="37">
+      <c r="J62" s="36">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="78"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="40"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="39"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="36">
         <v>0.69230000000000003</v>
       </c>
-      <c r="J63" s="37">
+      <c r="J63" s="36">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="78"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="52"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="51"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="36">
         <v>0.68989999999999996</v>
       </c>
-      <c r="J64" s="37">
+      <c r="J64" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="78"/>
-      <c r="B65" s="56" t="s">
+      <c r="A65" s="79"/>
+      <c r="B65" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -5335,112 +5353,112 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="54">
-        <v>0</v>
-      </c>
-      <c r="F65" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="51" t="s">
+      <c r="E65" s="53">
+        <v>0</v>
+      </c>
+      <c r="F65" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I65" s="37">
+      <c r="I65" s="36">
         <v>0.69679999999999997</v>
       </c>
-      <c r="J65" s="37">
+      <c r="J65" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="37">
+      <c r="E66" s="42"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="36">
         <v>0.69350000000000001</v>
       </c>
-      <c r="J66" s="37">
+      <c r="J66" s="36">
         <v>1.21E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="78"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="73" t="s">
+      <c r="A67" s="79"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="37">
+      <c r="D67" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="42"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="36">
         <v>0.6925</v>
       </c>
-      <c r="J67" s="37">
+      <c r="J67" s="36">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="78"/>
-      <c r="B68" s="56" t="s">
+      <c r="A68" s="79"/>
+      <c r="B68" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="51">
-        <v>0</v>
-      </c>
-      <c r="F68" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="E68" s="50">
+        <v>0</v>
+      </c>
+      <c r="F68" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="37">
+      <c r="I68" s="36">
         <v>0.69340000000000002</v>
       </c>
-      <c r="J68" s="37">
+      <c r="J68" s="36">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="79"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="76"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="51"/>
       <c r="H69" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="37">
+      <c r="I69" s="36">
         <v>0.69440000000000002</v>
       </c>
-      <c r="J69" s="37">
+      <c r="J69" s="36">
         <v>1.11E-2</v>
       </c>
     </row>
@@ -5470,45 +5488,45 @@
       <c r="H72" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="38" t="s">
+      <c r="I72" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="38" t="s">
+      <c r="J72" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="35">
+      <c r="C73" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="34">
         <v>1</v>
       </c>
-      <c r="G73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="69">
+      <c r="G73" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="68">
         <v>0.73809999999999998</v>
       </c>
-      <c r="J73" s="69">
+      <c r="J73" s="68">
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="77" t="s">
+      <c r="A74" s="78" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -5532,15 +5550,15 @@
       <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="68">
+      <c r="I74" s="67">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J74" s="68">
+      <c r="J74" s="67">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="78"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -5564,8 +5582,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="78"/>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="79"/>
+      <c r="B76" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -5574,10 +5592,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="54">
-        <v>0</v>
-      </c>
-      <c r="F76" s="54">
+      <c r="E76" s="53">
+        <v>0</v>
+      </c>
+      <c r="F76" s="53">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -5588,16 +5606,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="78"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -5606,16 +5624,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="78"/>
-      <c r="B78" s="62"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="61"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -5624,8 +5642,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="78"/>
-      <c r="B79" s="56" t="s">
+      <c r="A79" s="79"/>
+      <c r="B79" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -5634,13 +5652,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="54">
-        <v>0</v>
-      </c>
-      <c r="F79" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="51" t="s">
+      <c r="E79" s="53">
+        <v>0</v>
+      </c>
+      <c r="F79" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -5648,40 +5666,40 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="78"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="79"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="40"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="78"/>
-      <c r="B81" s="62"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="61"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="52"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="51"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="78"/>
-      <c r="B82" s="56" t="s">
+      <c r="A82" s="79"/>
+      <c r="B82" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -5690,65 +5708,65 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="54">
-        <v>0</v>
-      </c>
-      <c r="F82" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="51" t="s">
+      <c r="E82" s="53">
+        <v>0</v>
+      </c>
+      <c r="F82" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="48" t="s">
+      <c r="H82" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="78"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="79"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="49"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="48"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="78"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="73" t="s">
+      <c r="A84" s="79"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="49"/>
+      <c r="D84" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="42"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="78"/>
-      <c r="B85" s="56" t="s">
+      <c r="A85" s="79"/>
+      <c r="B85" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="51">
-        <v>0</v>
-      </c>
-      <c r="F85" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="51" t="s">
+      <c r="E85" s="50">
+        <v>0</v>
+      </c>
+      <c r="F85" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="21" t="s">
@@ -5756,15 +5774,15 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="79"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="76"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="75"/>
       <c r="D86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="51"/>
       <c r="H86" s="23" t="s">
         <v>8</v>
       </c>
@@ -5874,7 +5892,7 @@
   <dimension ref="A2:J86"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5887,23 +5905,23 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="37"/>
-    <col min="10" max="10" width="12.83203125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="36"/>
+    <col min="10" max="10" width="12.83203125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -5914,10 +5932,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -5944,47 +5962,47 @@
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="35">
+      <c r="C5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="34">
         <v>1</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="37">
+      <c r="G5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="36">
         <v>0.35220000000000001</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44"/>
       <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
@@ -6006,15 +6024,15 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>0.8589</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
@@ -6038,8 +6056,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -6048,10 +6066,10 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="54">
-        <v>0</v>
-      </c>
-      <c r="F8" s="54">
+      <c r="E8" s="53">
+        <v>0</v>
+      </c>
+      <c r="F8" s="53">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -6062,16 +6080,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
@@ -6080,16 +6098,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
@@ -6098,8 +6116,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6108,13 +6126,13 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="54">
-        <v>0</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="51" t="s">
+      <c r="E11" s="53">
+        <v>0</v>
+      </c>
+      <c r="F11" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -6122,40 +6140,40 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="40"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -6164,82 +6182,82 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="54">
-        <v>0</v>
-      </c>
-      <c r="F14" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="51" t="s">
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="49"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="63" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="59">
-        <v>0</v>
-      </c>
-      <c r="F17" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="59" t="s">
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0</v>
+      </c>
+      <c r="F17" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="24" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6271,39 +6289,39 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="35">
+      <c r="C22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="34">
         <v>1</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="37">
+      <c r="G22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="36">
         <v>0.28920000000000001</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>23</v>
-      </c>
+    <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="77"/>
       <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
@@ -6325,15 +6343,15 @@
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <v>0.73580000000000001</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="36">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
@@ -6357,8 +6375,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -6367,10 +6385,10 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="54">
-        <v>0</v>
-      </c>
-      <c r="F25" s="54">
+      <c r="E25" s="53">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53">
         <v>0.1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -6381,16 +6399,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
@@ -6399,16 +6417,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="62"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
@@ -6417,8 +6435,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -6427,13 +6445,13 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="54">
-        <v>0</v>
-      </c>
-      <c r="F28" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="51" t="s">
+      <c r="E28" s="53">
+        <v>0</v>
+      </c>
+      <c r="F28" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -6441,40 +6459,40 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="40"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="52"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -6483,81 +6501,82 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="54">
-        <v>0</v>
-      </c>
-      <c r="F31" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="51" t="s">
+      <c r="E31" s="53">
+        <v>0</v>
+      </c>
+      <c r="F31" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="49"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="50"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="63" t="s">
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="77"/>
+      <c r="B34" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="59">
-        <v>0</v>
-      </c>
-      <c r="F34" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="59" t="s">
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="50">
+        <v>0</v>
+      </c>
+      <c r="F34" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="24" t="s">
+      <c r="H34" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="77"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6598,39 +6617,39 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="35">
+      <c r="C39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="34">
         <v>1</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="37">
+      <c r="G39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="36">
         <v>0.42280000000000001</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="36">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>24</v>
-      </c>
+    <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="77"/>
       <c r="B40" s="16" t="s">
         <v>6</v>
       </c>
@@ -6652,15 +6671,15 @@
       <c r="H40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="36">
         <v>0.89239999999999997</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="36">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -6684,8 +6703,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -6694,10 +6713,10 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="54">
-        <v>0</v>
-      </c>
-      <c r="F42" s="54">
+      <c r="E42" s="53">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53">
         <v>0.1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6708,16 +6727,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
@@ -6726,16 +6745,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
@@ -6744,8 +6763,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -6754,13 +6773,13 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="54">
-        <v>0</v>
-      </c>
-      <c r="F45" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="51" t="s">
+      <c r="E45" s="53">
+        <v>0</v>
+      </c>
+      <c r="F45" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -6768,40 +6787,40 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="40"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="52"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="51"/>
       <c r="H47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -6810,81 +6829,82 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="54">
-        <v>0</v>
-      </c>
-      <c r="F48" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="51" t="s">
+      <c r="E48" s="53">
+        <v>0</v>
+      </c>
+      <c r="F48" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="49"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="50"/>
-    </row>
-    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="63" t="s">
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="49"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="77"/>
+      <c r="B51" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="59">
-        <v>0</v>
-      </c>
-      <c r="F51" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="59" t="s">
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="50">
+        <v>0</v>
+      </c>
+      <c r="F51" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="24" t="s">
+      <c r="H51" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="77"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="51"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6925,39 +6945,39 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="25" t="s">
+      <c r="A56" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="35">
+      <c r="C56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="34">
         <v>1</v>
       </c>
-      <c r="G56" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="37">
+      <c r="G56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="36">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J56" s="37">
+      <c r="J56" s="36">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
-        <v>34</v>
-      </c>
+    <row r="57" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="77"/>
       <c r="B57" s="16" t="s">
         <v>6</v>
       </c>
@@ -6979,15 +6999,15 @@
       <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="37">
+      <c r="I57" s="36">
         <v>0.88339999999999996</v>
       </c>
-      <c r="J57" s="37">
+      <c r="J57" s="36">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
@@ -7011,8 +7031,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="56" t="s">
+      <c r="A59" s="77"/>
+      <c r="B59" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -7021,10 +7041,10 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="54">
-        <v>0</v>
-      </c>
-      <c r="F59" s="54">
+      <c r="E59" s="53">
+        <v>0</v>
+      </c>
+      <c r="F59" s="53">
         <v>0.1</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -7035,16 +7055,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="4" t="s">
         <v>5</v>
       </c>
@@ -7053,16 +7073,16 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
-      <c r="B61" s="62"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
       <c r="G61" s="2" t="s">
         <v>5</v>
       </c>
@@ -7071,8 +7091,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="77"/>
+      <c r="B62" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -7081,13 +7101,13 @@
       <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="54">
-        <v>0</v>
-      </c>
-      <c r="F62" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G62" s="51" t="s">
+      <c r="E62" s="53">
+        <v>0</v>
+      </c>
+      <c r="F62" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -7095,40 +7115,40 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="45"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="77"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="40"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="39"/>
       <c r="H63" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="52"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="51"/>
       <c r="H64" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
-      <c r="B65" s="56" t="s">
+      <c r="A65" s="77"/>
+      <c r="B65" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -7137,81 +7157,82 @@
       <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="54">
-        <v>0</v>
-      </c>
-      <c r="F65" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="51" t="s">
+      <c r="E65" s="53">
+        <v>0</v>
+      </c>
+      <c r="F65" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="49"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="57"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="50"/>
-    </row>
-    <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="63" t="s">
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="49"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="77"/>
+      <c r="B68" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="59">
-        <v>0</v>
-      </c>
-      <c r="F68" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="59" t="s">
+      <c r="D68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="50">
+        <v>0</v>
+      </c>
+      <c r="F68" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="24" t="s">
+      <c r="H68" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="77"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="51"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7250,47 +7271,47 @@
       <c r="H72" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="38" t="s">
+      <c r="I72" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="38" t="s">
+      <c r="J72" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="25" t="s">
+    <row r="73" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="35">
+      <c r="C73" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="34">
         <v>1</v>
       </c>
-      <c r="G73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="37">
+      <c r="G73" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="36">
         <v>0.73809999999999998</v>
       </c>
-      <c r="J73" s="37">
+      <c r="J73" s="36">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="60" t="s">
-        <v>35</v>
-      </c>
+    <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="77"/>
       <c r="B74" s="16" t="s">
         <v>6</v>
       </c>
@@ -7312,15 +7333,15 @@
       <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="37">
+      <c r="I74" s="36">
         <v>0.85850000000000004</v>
       </c>
-      <c r="J74" s="37">
+      <c r="J74" s="36">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="16" t="s">
         <v>33</v>
       </c>
@@ -7344,8 +7365,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="77"/>
+      <c r="B76" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -7354,10 +7375,10 @@
       <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="54">
-        <v>0</v>
-      </c>
-      <c r="F76" s="54">
+      <c r="E76" s="53">
+        <v>0</v>
+      </c>
+      <c r="F76" s="53">
         <v>0.1</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -7368,16 +7389,16 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
       <c r="G77" s="4" t="s">
         <v>5</v>
       </c>
@@ -7386,16 +7407,16 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="45"/>
-      <c r="B78" s="62"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="61"/>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
@@ -7404,8 +7425,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
-      <c r="B79" s="56" t="s">
+      <c r="A79" s="77"/>
+      <c r="B79" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -7414,13 +7435,13 @@
       <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="54">
-        <v>0</v>
-      </c>
-      <c r="F79" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="51" t="s">
+      <c r="E79" s="53">
+        <v>0</v>
+      </c>
+      <c r="F79" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -7428,40 +7449,40 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="40"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
-      <c r="B81" s="62"/>
+      <c r="A81" s="77"/>
+      <c r="B81" s="61"/>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="52"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="51"/>
       <c r="H81" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
-      <c r="B82" s="56" t="s">
+      <c r="A82" s="77"/>
+      <c r="B82" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -7470,81 +7491,82 @@
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="54">
-        <v>0</v>
-      </c>
-      <c r="F82" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="51" t="s">
+      <c r="E82" s="53">
+        <v>0</v>
+      </c>
+      <c r="F82" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="48" t="s">
+      <c r="H82" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="49"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="48"/>
     </row>
     <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="57"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="50"/>
-    </row>
-    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="63" t="s">
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="49"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="77"/>
+      <c r="B85" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="59">
-        <v>0</v>
-      </c>
-      <c r="F85" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="59" t="s">
+      <c r="D85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="50">
+        <v>0</v>
+      </c>
+      <c r="F85" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="24" t="s">
+      <c r="H85" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="77"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="51"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7577,7 +7599,6 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A23:A33"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="F25:F27"/>
@@ -7586,13 +7607,13 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A22:A35"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A5:A18"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="F42:F44"/>
@@ -7601,12 +7622,13 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A39:A52"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="F59:F61"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="E62:E64"/>
+    <mergeCell ref="A56:A69"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="E51:E52"/>
@@ -7614,12 +7636,12 @@
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A74:A84"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="E76:E78"/>
     <mergeCell ref="F76:F78"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="E79:E81"/>
+    <mergeCell ref="A73:A86"/>
     <mergeCell ref="G62:G64"/>
     <mergeCell ref="G65:G67"/>
     <mergeCell ref="F62:F64"/>
@@ -7669,22 +7691,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="66"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -7716,7 +7738,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -7737,15 +7759,15 @@
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>0.8589</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -7766,8 +7788,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7776,10 +7798,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="54">
+      <c r="E6" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="53">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -7787,38 +7809,38 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -7827,73 +7849,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="51" t="s">
+      <c r="E9" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="40"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="53"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="59">
-        <v>0</v>
-      </c>
-      <c r="F12" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="59" t="s">
+      <c r="E12" s="58">
+        <v>0</v>
+      </c>
+      <c r="F12" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -7920,7 +7942,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -7941,15 +7963,15 @@
       <c r="G17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>0.73580000000000001</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -7970,8 +7992,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7980,10 +8002,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="54">
+      <c r="E19" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="53">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -7991,38 +8013,38 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -8031,75 +8053,75 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="E22" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="40"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="53"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="59">
-        <v>0</v>
-      </c>
-      <c r="F25" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="59" t="s">
+      <c r="E25" s="58">
+        <v>0</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="30"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="30"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -8126,7 +8148,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -8147,15 +8169,15 @@
       <c r="G30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>0.89239999999999997</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -8176,8 +8198,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -8186,10 +8208,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="54">
+      <c r="E32" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="53">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -8197,38 +8219,38 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -8237,75 +8259,75 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="51" t="s">
+      <c r="E35" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="40"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="53"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="59">
-        <v>0</v>
-      </c>
-      <c r="F38" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="59" t="s">
+      <c r="E38" s="58">
+        <v>0</v>
+      </c>
+      <c r="F38" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="30"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="30"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -8332,7 +8354,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="59" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -8353,15 +8375,15 @@
       <c r="G43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="36">
         <v>0.88339999999999996</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -8382,8 +8404,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -8392,10 +8414,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="54">
+      <c r="E45" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="53">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -8403,38 +8425,38 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -8443,75 +8465,75 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="51" t="s">
+      <c r="E48" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="40"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="53"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="63" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="59">
-        <v>0</v>
-      </c>
-      <c r="F51" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="59" t="s">
+      <c r="E51" s="58">
+        <v>0</v>
+      </c>
+      <c r="F51" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="30"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="30"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -8538,7 +8560,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -8559,15 +8581,15 @@
       <c r="G56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="37">
+      <c r="H56" s="36">
         <v>0.85850000000000004</v>
       </c>
-      <c r="I56" s="37">
+      <c r="I56" s="36">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -8588,8 +8610,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -8598,10 +8620,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="54">
+      <c r="E58" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="53">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -8609,38 +8631,38 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="62"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
-      <c r="B61" s="56" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -8649,75 +8671,75 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="51" t="s">
+      <c r="E61" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="40"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="57"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="53"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="63" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="59">
-        <v>0</v>
-      </c>
-      <c r="F64" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="59" t="s">
+      <c r="E64" s="58">
+        <v>0</v>
+      </c>
+      <c r="F64" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="30"/>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="30"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -8799,7 +8821,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8815,22 +8837,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="66"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8862,7 +8884,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -8883,15 +8905,15 @@
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>0.8589</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
@@ -8912,8 +8934,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8922,10 +8944,10 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="54">
+      <c r="E6" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="53">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -8933,38 +8955,38 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -8973,73 +8995,73 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="51" t="s">
+      <c r="E9" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="40"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="53"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="59">
-        <v>0</v>
-      </c>
-      <c r="F12" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="59" t="s">
+      <c r="E12" s="58">
+        <v>0</v>
+      </c>
+      <c r="F12" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9066,7 +9088,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -9087,15 +9109,15 @@
       <c r="G17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>0.73580000000000001</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
@@ -9116,8 +9138,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -9126,10 +9148,10 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="54">
+      <c r="E19" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="53">
         <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -9137,38 +9159,38 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -9177,73 +9199,73 @@
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="E22" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="40"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="53"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="59">
-        <v>0</v>
-      </c>
-      <c r="F25" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="59" t="s">
+      <c r="E25" s="58">
+        <v>0</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -9270,7 +9292,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -9291,15 +9313,15 @@
       <c r="G30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>0.89239999999999997</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>1.03E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
@@ -9320,8 +9342,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -9330,10 +9352,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="54">
+      <c r="E32" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="53">
         <v>0.1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -9341,38 +9363,38 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -9381,73 +9403,73 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="51" t="s">
+      <c r="E35" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="40"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="53"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="59">
-        <v>0</v>
-      </c>
-      <c r="F38" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="59" t="s">
+      <c r="E38" s="58">
+        <v>0</v>
+      </c>
+      <c r="F38" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -9474,7 +9496,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -9495,15 +9517,15 @@
       <c r="G43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="36">
         <v>0.88339999999999996</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
@@ -9524,8 +9546,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -9534,10 +9556,10 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="54">
+      <c r="E45" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="53">
         <v>0.1</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -9545,38 +9567,38 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -9585,73 +9607,73 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="51" t="s">
+      <c r="E48" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="40"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="53"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="63" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="59">
-        <v>0</v>
-      </c>
-      <c r="F51" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="59" t="s">
+      <c r="E51" s="58">
+        <v>0</v>
+      </c>
+      <c r="F51" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9678,7 +9700,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="59" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -9699,15 +9721,15 @@
       <c r="G56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="37">
+      <c r="H56" s="36">
         <v>0.85850000000000004</v>
       </c>
-      <c r="I56" s="37">
+      <c r="I56" s="36">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
@@ -9728,8 +9750,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -9738,10 +9760,10 @@
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F58" s="54">
+      <c r="E58" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="53">
         <v>0.1</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -9749,38 +9771,38 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="62"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
-      <c r="B61" s="56" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -9789,73 +9811,73 @@
       <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G61" s="51" t="s">
+      <c r="E61" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="40"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="57"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="53"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="63" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="59">
-        <v>0</v>
-      </c>
-      <c r="F64" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G64" s="59" t="s">
+      <c r="E64" s="58">
+        <v>0</v>
+      </c>
+      <c r="F64" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="67">
